--- a/supplementary 3.xlsx
+++ b/supplementary 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Downloads/wageningen/research records/record/supplementary github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279C390F-257A-1047-9A37-826AFB6D1049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A62F8DE-48C3-8141-A189-0EF0BD631D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1500" windowWidth="23440" windowHeight="13900" firstSheet="1" activeTab="2" xr2:uid="{AB2C3D19-D519-034F-8D16-2CCDF5C54FD3}"/>
+    <workbookView xWindow="1820" yWindow="1500" windowWidth="23440" windowHeight="13900" activeTab="1" xr2:uid="{AB2C3D19-D519-034F-8D16-2CCDF5C54FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="overview-category" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId8"/>
-    <pivotCache cacheId="20" r:id="rId9"/>
-    <pivotCache cacheId="21" r:id="rId10"/>
-    <pivotCache cacheId="22" r:id="rId11"/>
+    <pivotCache cacheId="4" r:id="rId8"/>
+    <pivotCache cacheId="5" r:id="rId9"/>
+    <pivotCache cacheId="6" r:id="rId10"/>
+    <pivotCache cacheId="7" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3399,47 +3399,29 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3453,19 +3435,58 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3477,12 +3498,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3492,50 +3507,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3547,6 +3520,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3564,35 +3552,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3603,11 +3573,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13190,7 +13190,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F777DAA4-F6CC-9147-BEA0-1008F4EAA4EC}" name="数据透视表2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F777DAA4-F6CC-9147-BEA0-1008F4EAA4EC}" name="数据透视表2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="H2:Q12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -13438,7 +13438,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6A9C866-737E-2E4A-8354-17718A4B3CB0}" name="数据透视表2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="papers">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6A9C866-737E-2E4A-8354-17718A4B3CB0}" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="papers">
   <location ref="E28:E72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -13643,7 +13643,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C030D2C4-5C64-8F4B-9370-41AD7B69BE7E}" name="数据透视表4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="p-pure">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C030D2C4-5C64-8F4B-9370-41AD7B69BE7E}" name="数据透视表4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="p-pure">
   <location ref="E17:E57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -13832,7 +13832,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D5C66F4-C643-DC47-AF27-4947DD519976}" name="数据透视表3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D5C66F4-C643-DC47-AF27-4947DD519976}" name="数据透视表3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="D1:G41" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -14469,20 +14469,20 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164" t="s">
+      <c r="C1" s="145"/>
+      <c r="D1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="154"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="148"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14494,13 +14494,13 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="151" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -14525,20 +14525,20 @@
         <v>13</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="M2" s="151" t="s">
+      <c r="M2" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="159" t="s">
+      <c r="N2" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="160">
+      <c r="O2" s="154">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="151"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="167"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
@@ -14559,13 +14559,13 @@
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="12"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="161"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="155"/>
     </row>
     <row r="4" spans="1:15" ht="32">
-      <c r="A4" s="151"/>
-      <c r="B4" s="147"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
@@ -14581,13 +14581,13 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="161"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="155"/>
     </row>
     <row r="5" spans="1:15" ht="14" customHeight="1">
-      <c r="A5" s="151"/>
-      <c r="B5" s="147"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
@@ -14601,13 +14601,13 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="16"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="161"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="155"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="151"/>
-      <c r="B6" s="147"/>
+      <c r="A6" s="149"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
@@ -14621,16 +14621,16 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="16"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="162"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="153"/>
+      <c r="O6" s="156"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="151"/>
-      <c r="B7" s="153" t="s">
+      <c r="A7" s="149"/>
+      <c r="B7" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="154"/>
+      <c r="C7" s="148"/>
       <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
@@ -14655,7 +14655,7 @@
       <c r="K7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="151"/>
+      <c r="M7" s="149"/>
       <c r="N7" s="23" t="s">
         <v>27</v>
       </c>
@@ -14664,11 +14664,11 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="151"/>
-      <c r="B8" s="153" t="s">
+      <c r="A8" s="149"/>
+      <c r="B8" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="154"/>
+      <c r="C8" s="148"/>
       <c r="D8" s="14" t="s">
         <v>33</v>
       </c>
@@ -14693,7 +14693,7 @@
       <c r="K8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="151"/>
+      <c r="M8" s="149"/>
       <c r="N8" s="23" t="s">
         <v>32</v>
       </c>
@@ -14702,8 +14702,8 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="151"/>
-      <c r="B9" s="147" t="s">
+      <c r="A9" s="149"/>
+      <c r="B9" s="150" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -14729,17 +14729,17 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="159" t="s">
+      <c r="M9" s="149"/>
+      <c r="N9" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="160">
+      <c r="O9" s="154">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="151"/>
-      <c r="B10" s="147"/>
+      <c r="A10" s="149"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="28" t="s">
         <v>46</v>
       </c>
@@ -14755,13 +14755,13 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="161"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="155"/>
     </row>
     <row r="11" spans="1:15" s="29" customFormat="1">
-      <c r="A11" s="151"/>
-      <c r="B11" s="147"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="13" t="s">
         <v>48</v>
       </c>
@@ -14775,13 +14775,13 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="16"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="162"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="156"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="151"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="149"/>
+      <c r="B12" s="150" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -14801,17 +14801,17 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="16"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="147" t="s">
+      <c r="M12" s="149"/>
+      <c r="N12" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="148">
+      <c r="O12" s="158">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="151"/>
-      <c r="B13" s="147"/>
+      <c r="A13" s="149"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="13" t="s">
         <v>54</v>
       </c>
@@ -14825,13 +14825,13 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="16"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="155"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="159"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="151"/>
-      <c r="B14" s="147"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="13" t="s">
         <v>55</v>
       </c>
@@ -14847,16 +14847,16 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="16"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="160"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="151"/>
-      <c r="B15" s="153" t="s">
+      <c r="A15" s="149"/>
+      <c r="B15" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="154"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="14" t="s">
         <v>59</v>
       </c>
@@ -14869,7 +14869,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="16"/>
-      <c r="M15" s="151"/>
+      <c r="M15" s="149"/>
       <c r="N15" s="33" t="s">
         <v>58</v>
       </c>
@@ -14878,8 +14878,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="29" customFormat="1">
-      <c r="A16" s="151"/>
-      <c r="B16" s="156" t="s">
+      <c r="A16" s="149"/>
+      <c r="B16" s="161" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="35" t="s">
@@ -14897,17 +14897,17 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="16"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="157" t="s">
+      <c r="M16" s="149"/>
+      <c r="N16" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="O16" s="148">
+      <c r="O16" s="158">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="29" customFormat="1">
-      <c r="A17" s="151"/>
-      <c r="B17" s="149"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="35" t="s">
         <v>64</v>
       </c>
@@ -14921,13 +14921,13 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="16"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="160"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="151"/>
-      <c r="B18" s="147" t="s">
+      <c r="A18" s="149"/>
+      <c r="B18" s="150" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -14945,17 +14945,17 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="16"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="147" t="s">
+      <c r="M18" s="149"/>
+      <c r="N18" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="148">
+      <c r="O18" s="158">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="151"/>
-      <c r="B19" s="147"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="13" t="s">
         <v>68</v>
       </c>
@@ -14969,16 +14969,16 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="16"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="149"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="160"/>
     </row>
     <row r="20" spans="1:15" ht="32">
-      <c r="A20" s="151"/>
-      <c r="B20" s="145" t="s">
+      <c r="A20" s="149"/>
+      <c r="B20" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="150"/>
+      <c r="C20" s="166"/>
       <c r="D20" s="39" t="s">
         <v>13</v>
       </c>
@@ -14989,7 +14989,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
-      <c r="M20" s="151"/>
+      <c r="M20" s="149"/>
       <c r="N20" s="40" t="s">
         <v>70</v>
       </c>
@@ -14998,7 +14998,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="151"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="41" t="s">
         <v>71</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
-      <c r="M21" s="151"/>
+      <c r="M21" s="149"/>
       <c r="N21" s="41" t="s">
         <v>71</v>
       </c>
@@ -15024,13 +15024,13 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="151" t="s">
+      <c r="A22" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="154" t="s">
+      <c r="C22" s="148" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -15043,7 +15043,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
-      <c r="M22" s="151" t="s">
+      <c r="M22" s="149" t="s">
         <v>74</v>
       </c>
       <c r="N22" s="33" t="s">
@@ -15054,11 +15054,11 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="152"/>
-      <c r="B23" s="153" t="s">
+      <c r="A23" s="167"/>
+      <c r="B23" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="154" t="s">
+      <c r="C23" s="148" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -15071,7 +15071,7 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="16"/>
-      <c r="M23" s="152"/>
+      <c r="M23" s="167"/>
       <c r="N23" s="33" t="s">
         <v>27</v>
       </c>
@@ -15083,10 +15083,10 @@
       <c r="A24" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="145" t="s">
+      <c r="B24" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="165" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="42" t="s">
@@ -15134,13 +15134,14 @@
     <row r="39" ht="19" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="N2:N6"/>
     <mergeCell ref="O2:O6"/>
     <mergeCell ref="B7:C7"/>
@@ -15155,14 +15156,13 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="O16:O17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15174,7 +15174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5138D383-F8CF-D144-ACA9-A4E93EDF7AD8}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -16220,7 +16220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A06229-4D33-F942-B615-F6B4A9C0442E}">
   <dimension ref="A1:AU102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="F35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
@@ -16277,15 +16277,15 @@
       </c>
     </row>
     <row r="3" spans="1:47" s="56" customFormat="1">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="171" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
       <c r="N3" s="54" t="s">
         <v>180</v>
       </c>
@@ -16294,25 +16294,25 @@
       </c>
     </row>
     <row r="4" spans="1:47" s="45" customFormat="1" ht="43" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="174" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
       <c r="H4" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="179" t="s">
+      <c r="I4" s="174" t="s">
         <v>184</v>
       </c>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
       <c r="N4" s="54" t="s">
         <v>185</v>
       </c>
@@ -16321,12 +16321,12 @@
       </c>
     </row>
     <row r="5" spans="1:47" ht="20">
-      <c r="A5" s="172"/>
-      <c r="B5" s="176" t="s">
+      <c r="A5" s="173"/>
+      <c r="B5" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="178"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
       <c r="E5" s="58" t="s">
         <v>188</v>
       </c>
@@ -16375,11 +16375,11 @@
       <c r="A6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="176">
+      <c r="B6" s="168">
         <v>29</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="170"/>
       <c r="E6" s="58">
         <v>4</v>
       </c>
@@ -16422,7 +16422,7 @@
       <c r="AU6" s="59"/>
     </row>
     <row r="7" spans="1:47" ht="17" customHeight="1">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="175" t="s">
         <v>196</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -16458,7 +16458,7 @@
       <c r="M7" s="60"/>
     </row>
     <row r="8" spans="1:47" ht="20">
-      <c r="A8" s="169"/>
+      <c r="A8" s="176"/>
       <c r="B8" s="69" t="s">
         <v>47</v>
       </c>
@@ -16486,16 +16486,16 @@
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
       <c r="M8" s="60"/>
-      <c r="P8" s="171" t="s">
+      <c r="P8" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="172"/>
+      <c r="Q8" s="173"/>
       <c r="R8" s="62" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:47" ht="20" customHeight="1">
-      <c r="A9" s="169"/>
+      <c r="A9" s="176"/>
       <c r="B9" s="69" t="s">
         <v>51</v>
       </c>
@@ -16517,18 +16517,18 @@
       <c r="J9" s="74"/>
       <c r="K9" s="74"/>
       <c r="M9" s="60"/>
-      <c r="P9" s="173" t="s">
+      <c r="P9" s="178" t="s">
         <v>182</v>
       </c>
-      <c r="Q9" s="176" t="s">
+      <c r="Q9" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="R9" s="176">
+      <c r="R9" s="168">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:47">
-      <c r="A10" s="169"/>
+      <c r="A10" s="176"/>
       <c r="B10" s="69" t="s">
         <v>56</v>
       </c>
@@ -16549,12 +16549,12 @@
       <c r="I10" s="74"/>
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
+      <c r="P10" s="179"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
     </row>
     <row r="11" spans="1:47">
-      <c r="A11" s="169"/>
+      <c r="A11" s="176"/>
       <c r="B11" s="69" t="s">
         <v>28</v>
       </c>
@@ -16573,12 +16573,12 @@
       <c r="I11" s="74"/>
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
-      <c r="P11" s="174"/>
-      <c r="Q11" s="178"/>
-      <c r="R11" s="178"/>
+      <c r="P11" s="179"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
     </row>
     <row r="12" spans="1:47">
-      <c r="A12" s="169"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="69" t="s">
         <v>33</v>
       </c>
@@ -16594,7 +16594,7 @@
       <c r="I12" s="74"/>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
-      <c r="P12" s="174"/>
+      <c r="P12" s="179"/>
       <c r="Q12" s="58" t="s">
         <v>188</v>
       </c>
@@ -16603,7 +16603,7 @@
       </c>
     </row>
     <row r="13" spans="1:47">
-      <c r="A13" s="169"/>
+      <c r="A13" s="176"/>
       <c r="B13" s="69" t="s">
         <v>57</v>
       </c>
@@ -16620,7 +16620,7 @@
       <c r="I13" s="74"/>
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
-      <c r="P13" s="174"/>
+      <c r="P13" s="179"/>
       <c r="Q13" s="58" t="s">
         <v>189</v>
       </c>
@@ -16629,7 +16629,7 @@
       </c>
     </row>
     <row r="14" spans="1:47">
-      <c r="A14" s="169"/>
+      <c r="A14" s="176"/>
       <c r="B14" s="69" t="s">
         <v>24</v>
       </c>
@@ -16646,7 +16646,7 @@
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
-      <c r="P14" s="175"/>
+      <c r="P14" s="180"/>
       <c r="Q14" s="58" t="s">
         <v>190</v>
       </c>
@@ -16655,7 +16655,7 @@
       </c>
     </row>
     <row r="15" spans="1:47" ht="28">
-      <c r="A15" s="169"/>
+      <c r="A15" s="176"/>
       <c r="B15" s="69" t="s">
         <v>29</v>
       </c>
@@ -16683,7 +16683,7 @@
       </c>
     </row>
     <row r="16" spans="1:47">
-      <c r="A16" s="170"/>
+      <c r="A16" s="177"/>
       <c r="B16" s="78" t="s">
         <v>41</v>
       </c>
@@ -16698,7 +16698,7 @@
       <c r="I16" s="81"/>
       <c r="J16" s="81"/>
       <c r="K16" s="81"/>
-      <c r="P16" s="179" t="s">
+      <c r="P16" s="174" t="s">
         <v>184</v>
       </c>
       <c r="Q16" s="58" t="s">
@@ -16711,7 +16711,7 @@
     <row r="17" spans="2:18">
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
-      <c r="P17" s="179"/>
+      <c r="P17" s="174"/>
       <c r="Q17" s="58" t="s">
         <v>193</v>
       </c>
@@ -16722,7 +16722,7 @@
     <row r="18" spans="2:18">
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
-      <c r="P18" s="179"/>
+      <c r="P18" s="174"/>
       <c r="Q18" s="58" t="s">
         <v>68</v>
       </c>
@@ -17132,18 +17132,18 @@
     <row r="102" ht="16" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:P14"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="P16:P18"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:P14"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="P16:P18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17270,7 +17270,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="175" t="s">
         <v>196</v>
       </c>
       <c r="B3" s="83" t="s">
@@ -17320,7 +17320,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="169"/>
+      <c r="A4" s="176"/>
       <c r="B4" s="88" t="s">
         <v>57</v>
       </c>
@@ -17350,7 +17350,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="169"/>
+      <c r="A5" s="176"/>
       <c r="B5" s="88" t="s">
         <v>24</v>
       </c>
@@ -17376,7 +17376,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="169"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="88" t="s">
         <v>7</v>
       </c>
@@ -17400,7 +17400,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="169"/>
+      <c r="A7" s="176"/>
       <c r="B7" s="88" t="s">
         <v>29</v>
       </c>
@@ -17424,7 +17424,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="169"/>
+      <c r="A8" s="176"/>
       <c r="B8" s="88" t="s">
         <v>59</v>
       </c>
@@ -17451,7 +17451,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="169"/>
+      <c r="A9" s="176"/>
       <c r="B9" s="88" t="s">
         <v>37</v>
       </c>
@@ -17472,7 +17472,7 @@
       <c r="O9" s="74"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="169"/>
+      <c r="A10" s="176"/>
       <c r="B10" s="88" t="s">
         <v>19</v>
       </c>
@@ -17494,7 +17494,7 @@
       <c r="P10" s="74"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="169"/>
+      <c r="A11" s="176"/>
       <c r="B11" s="88" t="s">
         <v>56</v>
       </c>
@@ -17516,7 +17516,7 @@
       <c r="P11" s="74"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="169"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="88"/>
       <c r="C12" s="89" t="s">
         <v>33</v>
@@ -17536,7 +17536,7 @@
       <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="170"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="80"/>
       <c r="C13" s="90" t="s">
         <v>11</v>
@@ -18130,7 +18130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F018D590-94FF-EA44-987B-D6600E76CD42}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -19075,7 +19075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36F306C-4468-124F-9E02-24BD853530B4}">
   <dimension ref="B2:R61"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="C8" zoomScale="125" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -19100,45 +19100,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="191" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="191" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="195" t="s">
+      <c r="D2" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="195" t="s">
+      <c r="E2" s="191" t="s">
         <v>273</v>
       </c>
-      <c r="F2" s="194" t="s">
+      <c r="F2" s="185" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="198" t="s">
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="194" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="191" t="s">
+      <c r="L2" s="195"/>
+      <c r="M2" s="182" t="s">
         <v>276</v>
       </c>
-      <c r="N2" s="192"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="194" t="s">
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="185" t="s">
         <v>277</v>
       </c>
-      <c r="R2" s="192"/>
+      <c r="R2" s="183"/>
     </row>
     <row r="3" spans="2:18" ht="56">
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
       <c r="F3" s="95" t="s">
         <v>278</v>
       </c>
@@ -19180,7 +19180,7 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="28">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="186" t="s">
         <v>290</v>
       </c>
       <c r="C4" s="101" t="s">
@@ -19192,98 +19192,98 @@
       <c r="E4" s="102">
         <v>2018</v>
       </c>
-      <c r="F4" s="190" t="s">
+      <c r="F4" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="G4" s="186">
+      <c r="G4" s="189">
         <v>1</v>
       </c>
-      <c r="H4" s="190" t="s">
+      <c r="H4" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="I4" s="190" t="s">
+      <c r="I4" s="186" t="s">
         <v>267</v>
       </c>
-      <c r="J4" s="186">
+      <c r="J4" s="189">
         <v>30</v>
       </c>
-      <c r="K4" s="190" t="s">
+      <c r="K4" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="L4" s="186" t="s">
+      <c r="L4" s="189" t="s">
         <v>294</v>
       </c>
       <c r="M4" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="N4" s="186" t="s">
+      <c r="N4" s="189" t="s">
         <v>295</v>
       </c>
-      <c r="O4" s="187" t="s">
+      <c r="O4" s="196" t="s">
         <v>295</v>
       </c>
       <c r="P4" s="101" t="s">
         <v>296</v>
       </c>
-      <c r="Q4" s="190" t="s">
+      <c r="Q4" s="186" t="s">
         <v>267</v>
       </c>
-      <c r="R4" s="186" t="s">
+      <c r="R4" s="189" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="185"/>
+      <c r="B5" s="187"/>
       <c r="C5" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="182" t="s">
+      <c r="D5" s="188" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="183">
+      <c r="E5" s="190">
         <v>2018</v>
       </c>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="183" t="s">
+      <c r="F5" s="188"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="190"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="N5" s="183"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="182" t="s">
+      <c r="N5" s="190"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="183"/>
+      <c r="Q5" s="188"/>
+      <c r="R5" s="190"/>
     </row>
     <row r="6" spans="2:18" ht="28">
-      <c r="B6" s="185"/>
+      <c r="B6" s="187"/>
       <c r="C6" s="103" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="182"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="189"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="183"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="190"/>
+      <c r="M6" s="190"/>
+      <c r="N6" s="190"/>
+      <c r="O6" s="198"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="190"/>
     </row>
     <row r="7" spans="2:18" ht="28">
-      <c r="B7" s="185"/>
+      <c r="B7" s="187"/>
       <c r="C7" s="103" t="s">
         <v>97</v>
       </c>
@@ -19293,41 +19293,41 @@
       <c r="E7" s="104">
         <v>2016</v>
       </c>
-      <c r="F7" s="182"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="182"/>
-      <c r="L7" s="183"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="190"/>
       <c r="M7" s="104" t="s">
         <v>295</v>
       </c>
-      <c r="N7" s="183"/>
+      <c r="N7" s="190"/>
       <c r="O7" s="104" t="s">
         <v>298</v>
       </c>
       <c r="P7" s="103" t="s">
         <v>299</v>
       </c>
-      <c r="Q7" s="182"/>
-      <c r="R7" s="183"/>
+      <c r="Q7" s="188"/>
+      <c r="R7" s="190"/>
     </row>
     <row r="8" spans="2:18" ht="28">
-      <c r="B8" s="185"/>
-      <c r="C8" s="182" t="s">
+      <c r="B8" s="187"/>
+      <c r="C8" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="182" t="s">
+      <c r="D8" s="188" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="183">
+      <c r="E8" s="190">
         <v>2014</v>
       </c>
       <c r="F8" s="103" t="s">
         <v>291</v>
       </c>
-      <c r="G8" s="183">
+      <c r="G8" s="190">
         <v>2</v>
       </c>
       <c r="H8" s="103" t="s">
@@ -19342,35 +19342,35 @@
       <c r="K8" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="L8" s="183" t="s">
+      <c r="L8" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="M8" s="183" t="s">
+      <c r="M8" s="190" t="s">
         <v>302</v>
       </c>
-      <c r="N8" s="183" t="s">
+      <c r="N8" s="190" t="s">
         <v>295</v>
       </c>
-      <c r="O8" s="183" t="s">
+      <c r="O8" s="190" t="s">
         <v>295</v>
       </c>
-      <c r="P8" s="182" t="s">
+      <c r="P8" s="188" t="s">
         <v>299</v>
       </c>
-      <c r="Q8" s="182"/>
-      <c r="R8" s="183" t="s">
+      <c r="Q8" s="188"/>
+      <c r="R8" s="190" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="42">
-      <c r="B9" s="185"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="183"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="190"/>
       <c r="F9" s="103" t="s">
         <v>303</v>
       </c>
-      <c r="G9" s="183"/>
+      <c r="G9" s="190"/>
       <c r="H9" s="103" t="s">
         <v>304</v>
       </c>
@@ -19383,16 +19383,16 @@
       <c r="K9" s="103" t="s">
         <v>306</v>
       </c>
-      <c r="L9" s="183"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="182"/>
-      <c r="Q9" s="182"/>
-      <c r="R9" s="183"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
+      <c r="N9" s="190"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="188"/>
+      <c r="R9" s="190"/>
     </row>
     <row r="10" spans="2:18" ht="28">
-      <c r="B10" s="185"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="103" t="s">
         <v>97</v>
       </c>
@@ -19435,81 +19435,81 @@
       <c r="P10" s="103" t="s">
         <v>308</v>
       </c>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="183" t="s">
+      <c r="Q10" s="188"/>
+      <c r="R10" s="190" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1">
-      <c r="B11" s="185"/>
+      <c r="B11" s="187"/>
       <c r="C11" s="103" t="s">
         <v>309</v>
       </c>
-      <c r="D11" s="182" t="s">
+      <c r="D11" s="188" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="183">
+      <c r="E11" s="190">
         <v>2021</v>
       </c>
-      <c r="F11" s="182" t="s">
+      <c r="F11" s="188" t="s">
         <v>310</v>
       </c>
-      <c r="G11" s="183">
+      <c r="G11" s="190">
         <v>1</v>
       </c>
-      <c r="H11" s="182" t="s">
+      <c r="H11" s="188" t="s">
         <v>311</v>
       </c>
-      <c r="I11" s="182" t="s">
+      <c r="I11" s="188" t="s">
         <v>312</v>
       </c>
-      <c r="J11" s="183">
+      <c r="J11" s="190">
         <v>30</v>
       </c>
-      <c r="K11" s="182" t="s">
+      <c r="K11" s="188" t="s">
         <v>313</v>
       </c>
-      <c r="L11" s="183" t="s">
+      <c r="L11" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="M11" s="183" t="s">
+      <c r="M11" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="N11" s="183" t="s">
+      <c r="N11" s="190" t="s">
         <v>295</v>
       </c>
-      <c r="O11" s="183" t="s">
+      <c r="O11" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="P11" s="182" t="s">
+      <c r="P11" s="188" t="s">
         <v>314</v>
       </c>
-      <c r="Q11" s="182"/>
-      <c r="R11" s="183"/>
+      <c r="Q11" s="188"/>
+      <c r="R11" s="190"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="185"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="103" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="182"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="183"/>
-      <c r="P12" s="182"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="183"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="188"/>
+      <c r="Q12" s="188"/>
+      <c r="R12" s="190"/>
     </row>
     <row r="13" spans="2:18" ht="28">
-      <c r="B13" s="185"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="103" t="s">
         <v>309</v>
       </c>
@@ -19552,79 +19552,79 @@
       <c r="P13" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="183"/>
+      <c r="Q13" s="188"/>
+      <c r="R13" s="190"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="185"/>
+      <c r="B14" s="187"/>
       <c r="C14" s="103" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="182" t="s">
+      <c r="D14" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="183">
+      <c r="E14" s="190">
         <v>2020</v>
       </c>
-      <c r="F14" s="182" t="s">
+      <c r="F14" s="188" t="s">
         <v>317</v>
       </c>
-      <c r="G14" s="183">
+      <c r="G14" s="190">
         <v>1</v>
       </c>
-      <c r="H14" s="182" t="s">
+      <c r="H14" s="188" t="s">
         <v>318</v>
       </c>
-      <c r="I14" s="182" t="s">
+      <c r="I14" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="J14" s="183" t="s">
+      <c r="J14" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="K14" s="182" t="s">
+      <c r="K14" s="188" t="s">
         <v>293</v>
       </c>
-      <c r="L14" s="183" t="s">
+      <c r="L14" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="M14" s="183" t="s">
+      <c r="M14" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="N14" s="183" t="s">
+      <c r="N14" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="O14" s="183" t="s">
+      <c r="O14" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="P14" s="182" t="s">
+      <c r="P14" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="Q14" s="182"/>
-      <c r="R14" s="183"/>
+      <c r="Q14" s="188"/>
+      <c r="R14" s="190"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="185"/>
+      <c r="B15" s="187"/>
       <c r="C15" s="103" t="s">
         <v>319</v>
       </c>
-      <c r="D15" s="182"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="182"/>
-      <c r="Q15" s="182"/>
-      <c r="R15" s="183"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="190"/>
+      <c r="O15" s="190"/>
+      <c r="P15" s="188"/>
+      <c r="Q15" s="188"/>
+      <c r="R15" s="190"/>
     </row>
     <row r="16" spans="2:18" ht="28">
-      <c r="B16" s="185"/>
+      <c r="B16" s="187"/>
       <c r="C16" s="103" t="s">
         <v>319</v>
       </c>
@@ -19667,11 +19667,11 @@
       <c r="P16" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="183"/>
+      <c r="Q16" s="188"/>
+      <c r="R16" s="190"/>
     </row>
     <row r="17" spans="2:18" ht="28">
-      <c r="B17" s="185"/>
+      <c r="B17" s="187"/>
       <c r="C17" s="103" t="s">
         <v>309</v>
       </c>
@@ -19714,168 +19714,168 @@
       <c r="P17" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="183"/>
+      <c r="Q17" s="188"/>
+      <c r="R17" s="190"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="185"/>
+      <c r="B18" s="187"/>
       <c r="C18" s="103" t="s">
         <v>309</v>
       </c>
-      <c r="D18" s="182" t="s">
+      <c r="D18" s="188" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="183">
+      <c r="E18" s="190">
         <v>2018</v>
       </c>
-      <c r="F18" s="182" t="s">
+      <c r="F18" s="188" t="s">
         <v>320</v>
       </c>
-      <c r="G18" s="183">
+      <c r="G18" s="190">
         <v>1</v>
       </c>
-      <c r="H18" s="182" t="s">
+      <c r="H18" s="188" t="s">
         <v>326</v>
       </c>
-      <c r="I18" s="182" t="s">
+      <c r="I18" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="J18" s="183" t="s">
+      <c r="J18" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="K18" s="182" t="s">
+      <c r="K18" s="188" t="s">
         <v>327</v>
       </c>
-      <c r="L18" s="183" t="s">
+      <c r="L18" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="M18" s="183" t="s">
+      <c r="M18" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="N18" s="183" t="s">
+      <c r="N18" s="190" t="s">
         <v>295</v>
       </c>
-      <c r="O18" s="183" t="s">
+      <c r="O18" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="P18" s="182" t="s">
+      <c r="P18" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="183"/>
+      <c r="Q18" s="188"/>
+      <c r="R18" s="190"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="185"/>
+      <c r="B19" s="187"/>
       <c r="C19" s="103" t="s">
         <v>315</v>
       </c>
-      <c r="D19" s="182"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="183"/>
-      <c r="P19" s="182"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="183"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="188"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="190"/>
+      <c r="N19" s="190"/>
+      <c r="O19" s="190"/>
+      <c r="P19" s="188"/>
+      <c r="Q19" s="188"/>
+      <c r="R19" s="190"/>
     </row>
     <row r="20" spans="2:18" ht="64" customHeight="1">
-      <c r="B20" s="185"/>
+      <c r="B20" s="187"/>
       <c r="C20" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="D20" s="182" t="s">
+      <c r="D20" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="183">
+      <c r="E20" s="190">
         <v>2018</v>
       </c>
-      <c r="F20" s="182" t="s">
+      <c r="F20" s="188" t="s">
         <v>329</v>
       </c>
-      <c r="G20" s="183">
+      <c r="G20" s="190">
         <v>1</v>
       </c>
-      <c r="H20" s="182" t="s">
+      <c r="H20" s="188" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="182" t="s">
+      <c r="I20" s="188" t="s">
         <v>298</v>
       </c>
-      <c r="J20" s="183">
+      <c r="J20" s="190">
         <v>30</v>
       </c>
-      <c r="K20" s="182" t="s">
+      <c r="K20" s="188" t="s">
         <v>313</v>
       </c>
-      <c r="L20" s="183" t="s">
+      <c r="L20" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="M20" s="183" t="s">
+      <c r="M20" s="190" t="s">
         <v>295</v>
       </c>
-      <c r="N20" s="183" t="s">
+      <c r="N20" s="190" t="s">
         <v>295</v>
       </c>
-      <c r="O20" s="183" t="s">
+      <c r="O20" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="P20" s="182" t="s">
+      <c r="P20" s="188" t="s">
         <v>325</v>
       </c>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="183"/>
+      <c r="Q20" s="188"/>
+      <c r="R20" s="190"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="185"/>
+      <c r="B21" s="187"/>
       <c r="C21" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="182"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="183"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="188"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="190"/>
+      <c r="N21" s="190"/>
+      <c r="O21" s="190"/>
+      <c r="P21" s="188"/>
+      <c r="Q21" s="188"/>
+      <c r="R21" s="190"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="185"/>
+      <c r="B22" s="187"/>
       <c r="C22" s="103" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="182"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="183"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="190"/>
+      <c r="M22" s="190"/>
+      <c r="N22" s="190"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="188"/>
+      <c r="Q22" s="188"/>
+      <c r="R22" s="190"/>
     </row>
     <row r="23" spans="2:18" ht="56">
-      <c r="B23" s="185"/>
+      <c r="B23" s="187"/>
       <c r="C23" s="103" t="s">
         <v>97</v>
       </c>
@@ -19918,11 +19918,11 @@
       <c r="P23" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="183"/>
+      <c r="Q23" s="188"/>
+      <c r="R23" s="190"/>
     </row>
     <row r="24" spans="2:18" ht="28">
-      <c r="B24" s="185"/>
+      <c r="B24" s="187"/>
       <c r="C24" s="103" t="s">
         <v>328</v>
       </c>
@@ -19965,11 +19965,11 @@
       <c r="P24" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="183"/>
+      <c r="Q24" s="188"/>
+      <c r="R24" s="190"/>
     </row>
     <row r="25" spans="2:18" ht="28">
-      <c r="B25" s="185"/>
+      <c r="B25" s="187"/>
       <c r="C25" s="103" t="s">
         <v>328</v>
       </c>
@@ -20012,11 +20012,11 @@
       <c r="P25" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="183"/>
+      <c r="Q25" s="188"/>
+      <c r="R25" s="190"/>
     </row>
     <row r="26" spans="2:18" ht="28">
-      <c r="B26" s="185"/>
+      <c r="B26" s="187"/>
       <c r="C26" s="103" t="s">
         <v>316</v>
       </c>
@@ -20059,33 +20059,33 @@
       <c r="P26" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="183"/>
+      <c r="Q26" s="188"/>
+      <c r="R26" s="190"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="185"/>
-      <c r="C27" s="182" t="s">
+      <c r="B27" s="187"/>
+      <c r="C27" s="188" t="s">
         <v>315</v>
       </c>
-      <c r="D27" s="182" t="s">
+      <c r="D27" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="183">
+      <c r="E27" s="190">
         <v>2015</v>
       </c>
-      <c r="F27" s="182" t="s">
+      <c r="F27" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="G27" s="183">
+      <c r="G27" s="190">
         <v>1</v>
       </c>
       <c r="H27" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="I27" s="182" t="s">
+      <c r="I27" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="J27" s="183" t="s">
+      <c r="J27" s="190" t="s">
         <v>267</v>
       </c>
       <c r="K27" s="103" t="s">
@@ -20106,21 +20106,21 @@
       <c r="P27" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="183"/>
+      <c r="Q27" s="188"/>
+      <c r="R27" s="190"/>
     </row>
     <row r="28" spans="2:18" ht="45" customHeight="1">
-      <c r="B28" s="185"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="183"/>
+      <c r="B28" s="187"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="190"/>
       <c r="H28" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="I28" s="182"/>
-      <c r="J28" s="183"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="190"/>
       <c r="K28" s="103" t="s">
         <v>343</v>
       </c>
@@ -20139,11 +20139,11 @@
       <c r="P28" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="183"/>
+      <c r="Q28" s="188"/>
+      <c r="R28" s="190"/>
     </row>
     <row r="29" spans="2:18" ht="70">
-      <c r="B29" s="185"/>
+      <c r="B29" s="187"/>
       <c r="C29" s="103" t="s">
         <v>315</v>
       </c>
@@ -20186,11 +20186,11 @@
       <c r="P29" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="183"/>
+      <c r="Q29" s="188"/>
+      <c r="R29" s="190"/>
     </row>
     <row r="30" spans="2:18" ht="56">
-      <c r="B30" s="185"/>
+      <c r="B30" s="187"/>
       <c r="C30" s="103" t="s">
         <v>328</v>
       </c>
@@ -20233,11 +20233,11 @@
       <c r="P30" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="183"/>
+      <c r="Q30" s="188"/>
+      <c r="R30" s="190"/>
     </row>
     <row r="31" spans="2:18" ht="28">
-      <c r="B31" s="185"/>
+      <c r="B31" s="187"/>
       <c r="C31" s="103" t="s">
         <v>328</v>
       </c>
@@ -20280,11 +20280,11 @@
       <c r="P31" s="103" t="s">
         <v>351</v>
       </c>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="183"/>
+      <c r="Q31" s="188"/>
+      <c r="R31" s="190"/>
     </row>
     <row r="32" spans="2:18" ht="28">
-      <c r="B32" s="185"/>
+      <c r="B32" s="187"/>
       <c r="C32" s="103" t="s">
         <v>328</v>
       </c>
@@ -20327,81 +20327,81 @@
       <c r="P32" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="183"/>
+      <c r="Q32" s="188"/>
+      <c r="R32" s="190"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="185"/>
+      <c r="B33" s="187"/>
       <c r="C33" s="103" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="188" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="183">
+      <c r="E33" s="190">
         <v>2017</v>
       </c>
-      <c r="F33" s="182" t="s">
+      <c r="F33" s="188" t="s">
         <v>291</v>
       </c>
-      <c r="G33" s="183">
+      <c r="G33" s="190">
         <v>2</v>
       </c>
-      <c r="H33" s="182" t="s">
+      <c r="H33" s="188" t="s">
         <v>356</v>
       </c>
-      <c r="I33" s="182" t="s">
+      <c r="I33" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="183" t="s">
+      <c r="J33" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="K33" s="182" t="s">
+      <c r="K33" s="188" t="s">
         <v>306</v>
       </c>
-      <c r="L33" s="183" t="s">
+      <c r="L33" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="M33" s="183" t="s">
+      <c r="M33" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="N33" s="183" t="s">
+      <c r="N33" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="O33" s="183" t="s">
+      <c r="O33" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="P33" s="182" t="s">
+      <c r="P33" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="183" t="s">
+      <c r="Q33" s="188"/>
+      <c r="R33" s="190" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="185"/>
+      <c r="B34" s="187"/>
       <c r="C34" s="103" t="s">
         <v>315</v>
       </c>
-      <c r="D34" s="182"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="182"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="182"/>
-      <c r="L34" s="183"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="183"/>
-      <c r="O34" s="183"/>
-      <c r="P34" s="182"/>
-      <c r="Q34" s="182"/>
-      <c r="R34" s="183"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="190"/>
+      <c r="K34" s="188"/>
+      <c r="L34" s="190"/>
+      <c r="M34" s="190"/>
+      <c r="N34" s="190"/>
+      <c r="O34" s="190"/>
+      <c r="P34" s="188"/>
+      <c r="Q34" s="188"/>
+      <c r="R34" s="190"/>
     </row>
     <row r="35" spans="2:18" ht="42">
-      <c r="B35" s="185"/>
+      <c r="B35" s="187"/>
       <c r="C35" s="103" t="s">
         <v>50</v>
       </c>
@@ -20444,13 +20444,13 @@
       <c r="P35" s="103" t="s">
         <v>362</v>
       </c>
-      <c r="Q35" s="182"/>
+      <c r="Q35" s="188"/>
       <c r="R35" s="104" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="182" t="s">
+      <c r="B36" s="188" t="s">
         <v>363</v>
       </c>
       <c r="C36" s="103" t="s">
@@ -20462,31 +20462,31 @@
       <c r="E36" s="104">
         <v>2019</v>
       </c>
-      <c r="F36" s="182" t="s">
+      <c r="F36" s="188" t="s">
         <v>364</v>
       </c>
-      <c r="G36" s="183">
+      <c r="G36" s="190">
         <v>1</v>
       </c>
-      <c r="H36" s="182" t="s">
+      <c r="H36" s="188" t="s">
         <v>365</v>
       </c>
-      <c r="I36" s="182" t="s">
+      <c r="I36" s="188" t="s">
         <v>366</v>
       </c>
-      <c r="J36" s="183" t="s">
+      <c r="J36" s="190" t="s">
         <v>267</v>
       </c>
       <c r="K36" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="L36" s="183" t="s">
+      <c r="L36" s="190" t="s">
         <v>294</v>
       </c>
       <c r="M36" s="104" t="s">
         <v>267</v>
       </c>
-      <c r="N36" s="183" t="s">
+      <c r="N36" s="190" t="s">
         <v>294</v>
       </c>
       <c r="O36" s="104" t="s">
@@ -20495,13 +20495,13 @@
       <c r="P36" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="183" t="s">
+      <c r="Q36" s="187"/>
+      <c r="R36" s="190" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="185"/>
+      <c r="B37" s="187"/>
       <c r="C37" s="103" t="s">
         <v>315</v>
       </c>
@@ -20511,27 +20511,27 @@
       <c r="E37" s="104">
         <v>2018</v>
       </c>
-      <c r="F37" s="182"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="182"/>
-      <c r="I37" s="182"/>
-      <c r="J37" s="183"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="190"/>
       <c r="K37" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="L37" s="183"/>
+      <c r="L37" s="190"/>
       <c r="M37" s="104" t="s">
         <v>267</v>
       </c>
-      <c r="N37" s="183"/>
+      <c r="N37" s="190"/>
       <c r="O37" s="104" t="s">
         <v>267</v>
       </c>
       <c r="P37" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="183"/>
+      <c r="Q37" s="187"/>
+      <c r="R37" s="190"/>
     </row>
     <row r="38" spans="2:18" ht="70">
       <c r="B38" s="103" t="s">
@@ -20593,49 +20593,49 @@
       <c r="C39" s="103" t="s">
         <v>309</v>
       </c>
-      <c r="D39" s="182" t="s">
+      <c r="D39" s="188" t="s">
         <v>246</v>
       </c>
-      <c r="E39" s="183">
+      <c r="E39" s="190">
         <v>2020</v>
       </c>
-      <c r="F39" s="182" t="s">
+      <c r="F39" s="188" t="s">
         <v>320</v>
       </c>
-      <c r="G39" s="183">
+      <c r="G39" s="190">
         <v>1</v>
       </c>
       <c r="H39" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="I39" s="182" t="s">
+      <c r="I39" s="188" t="s">
         <v>373</v>
       </c>
-      <c r="J39" s="183">
+      <c r="J39" s="190">
         <v>10</v>
       </c>
-      <c r="K39" s="182" t="s">
+      <c r="K39" s="188" t="s">
         <v>374</v>
       </c>
-      <c r="L39" s="183" t="s">
+      <c r="L39" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="M39" s="183" t="s">
+      <c r="M39" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="N39" s="183" t="s">
+      <c r="N39" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="O39" s="183" t="s">
+      <c r="O39" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="P39" s="182" t="s">
+      <c r="P39" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="Q39" s="182" t="s">
+      <c r="Q39" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="R39" s="183" t="s">
+      <c r="R39" s="190" t="s">
         <v>267</v>
       </c>
     </row>
@@ -20646,23 +20646,23 @@
       <c r="C40" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="D40" s="182"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="183"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="190"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="190"/>
       <c r="H40" s="103" t="s">
         <v>372</v>
       </c>
-      <c r="I40" s="182"/>
-      <c r="J40" s="183"/>
-      <c r="K40" s="182"/>
-      <c r="L40" s="183"/>
-      <c r="M40" s="183"/>
-      <c r="N40" s="183"/>
-      <c r="O40" s="183"/>
-      <c r="P40" s="182"/>
-      <c r="Q40" s="182"/>
-      <c r="R40" s="183"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="190"/>
+      <c r="K40" s="188"/>
+      <c r="L40" s="190"/>
+      <c r="M40" s="190"/>
+      <c r="N40" s="190"/>
+      <c r="O40" s="190"/>
+      <c r="P40" s="188"/>
+      <c r="Q40" s="188"/>
+      <c r="R40" s="190"/>
     </row>
     <row r="41" spans="2:18" ht="70">
       <c r="B41" s="103" t="s">
@@ -20671,23 +20671,23 @@
       <c r="C41" s="103" t="s">
         <v>315</v>
       </c>
-      <c r="D41" s="182"/>
-      <c r="E41" s="183"/>
-      <c r="F41" s="182"/>
-      <c r="G41" s="183"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="190"/>
       <c r="H41" s="103" t="s">
         <v>376</v>
       </c>
-      <c r="I41" s="182"/>
-      <c r="J41" s="183"/>
-      <c r="K41" s="182"/>
-      <c r="L41" s="183"/>
-      <c r="M41" s="183"/>
-      <c r="N41" s="183"/>
-      <c r="O41" s="183"/>
-      <c r="P41" s="182"/>
-      <c r="Q41" s="182"/>
-      <c r="R41" s="183"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="190"/>
+      <c r="K41" s="188"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="190"/>
+      <c r="N41" s="190"/>
+      <c r="O41" s="190"/>
+      <c r="P41" s="188"/>
+      <c r="Q41" s="188"/>
+      <c r="R41" s="190"/>
     </row>
     <row r="42" spans="2:18" ht="98">
       <c r="B42" s="103" t="s">
@@ -20796,16 +20796,16 @@
       </c>
     </row>
     <row r="44" spans="2:18" ht="56">
-      <c r="B44" s="182" t="s">
+      <c r="B44" s="188" t="s">
         <v>377</v>
       </c>
       <c r="C44" s="103" t="s">
         <v>385</v>
       </c>
-      <c r="D44" s="182" t="s">
+      <c r="D44" s="188" t="s">
         <v>157</v>
       </c>
-      <c r="E44" s="183">
+      <c r="E44" s="190">
         <v>2017</v>
       </c>
       <c r="F44" s="103" t="s">
@@ -20817,10 +20817,10 @@
       <c r="H44" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="I44" s="182" t="s">
+      <c r="I44" s="188" t="s">
         <v>387</v>
       </c>
-      <c r="J44" s="183">
+      <c r="J44" s="190">
         <v>60</v>
       </c>
       <c r="K44" s="103" t="s">
@@ -20832,10 +20832,10 @@
       <c r="M44" s="104" t="s">
         <v>267</v>
       </c>
-      <c r="N44" s="183" t="s">
+      <c r="N44" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="O44" s="183" t="s">
+      <c r="O44" s="190" t="s">
         <v>267</v>
       </c>
       <c r="P44" s="103" t="s">
@@ -20849,12 +20849,12 @@
       </c>
     </row>
     <row r="45" spans="2:18" ht="28">
-      <c r="B45" s="182"/>
+      <c r="B45" s="188"/>
       <c r="C45" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="D45" s="182"/>
-      <c r="E45" s="183"/>
+      <c r="D45" s="188"/>
+      <c r="E45" s="190"/>
       <c r="F45" s="103" t="s">
         <v>291</v>
       </c>
@@ -20864,8 +20864,8 @@
       <c r="H45" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="I45" s="182"/>
-      <c r="J45" s="183"/>
+      <c r="I45" s="188"/>
+      <c r="J45" s="190"/>
       <c r="K45" s="103" t="s">
         <v>390</v>
       </c>
@@ -20875,8 +20875,8 @@
       <c r="M45" s="104" t="s">
         <v>294</v>
       </c>
-      <c r="N45" s="183"/>
-      <c r="O45" s="183"/>
+      <c r="N45" s="190"/>
+      <c r="O45" s="190"/>
       <c r="P45" s="103" t="s">
         <v>267</v>
       </c>
@@ -20888,126 +20888,126 @@
       </c>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="182" t="s">
+      <c r="B46" s="188" t="s">
         <v>377</v>
       </c>
       <c r="C46" s="103" t="s">
         <v>315</v>
       </c>
-      <c r="D46" s="182" t="s">
+      <c r="D46" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="183">
+      <c r="E46" s="190">
         <v>2019</v>
       </c>
-      <c r="F46" s="182" t="s">
+      <c r="F46" s="188" t="s">
         <v>391</v>
       </c>
-      <c r="G46" s="183">
+      <c r="G46" s="190">
         <v>5</v>
       </c>
-      <c r="H46" s="182" t="s">
+      <c r="H46" s="188" t="s">
         <v>392</v>
       </c>
-      <c r="I46" s="182" t="s">
+      <c r="I46" s="188" t="s">
         <v>370</v>
       </c>
-      <c r="J46" s="183">
+      <c r="J46" s="190">
         <v>80</v>
       </c>
-      <c r="K46" s="182" t="s">
+      <c r="K46" s="188" t="s">
         <v>393</v>
       </c>
-      <c r="L46" s="183" t="s">
+      <c r="L46" s="190" t="s">
         <v>295</v>
       </c>
-      <c r="M46" s="183" t="s">
+      <c r="M46" s="190" t="s">
         <v>302</v>
       </c>
-      <c r="N46" s="183" t="s">
+      <c r="N46" s="190" t="s">
         <v>302</v>
       </c>
-      <c r="O46" s="183" t="s">
+      <c r="O46" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="P46" s="182" t="s">
+      <c r="P46" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="Q46" s="182" t="s">
+      <c r="Q46" s="188" t="s">
         <v>295</v>
       </c>
-      <c r="R46" s="183" t="s">
+      <c r="R46" s="190" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="47" spans="2:18" ht="92" customHeight="1">
-      <c r="B47" s="182"/>
+      <c r="B47" s="188"/>
       <c r="C47" s="103" t="s">
         <v>309</v>
       </c>
-      <c r="D47" s="182"/>
-      <c r="E47" s="183"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="183"/>
-      <c r="H47" s="182"/>
-      <c r="I47" s="182"/>
-      <c r="J47" s="183"/>
-      <c r="K47" s="182"/>
-      <c r="L47" s="183"/>
-      <c r="M47" s="183"/>
-      <c r="N47" s="183"/>
-      <c r="O47" s="183"/>
-      <c r="P47" s="182"/>
-      <c r="Q47" s="182"/>
-      <c r="R47" s="183"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="190"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="190"/>
+      <c r="H47" s="188"/>
+      <c r="I47" s="188"/>
+      <c r="J47" s="190"/>
+      <c r="K47" s="188"/>
+      <c r="L47" s="190"/>
+      <c r="M47" s="190"/>
+      <c r="N47" s="190"/>
+      <c r="O47" s="190"/>
+      <c r="P47" s="188"/>
+      <c r="Q47" s="188"/>
+      <c r="R47" s="190"/>
     </row>
     <row r="48" spans="2:18">
-      <c r="B48" s="182" t="s">
+      <c r="B48" s="188" t="s">
         <v>377</v>
       </c>
       <c r="C48" s="103" t="s">
         <v>315</v>
       </c>
-      <c r="D48" s="182" t="s">
+      <c r="D48" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="183">
+      <c r="E48" s="190">
         <v>2019</v>
       </c>
-      <c r="F48" s="182"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="182"/>
-      <c r="I48" s="182"/>
-      <c r="J48" s="183"/>
-      <c r="K48" s="182"/>
-      <c r="L48" s="183"/>
-      <c r="M48" s="183"/>
-      <c r="N48" s="183"/>
-      <c r="O48" s="183"/>
-      <c r="P48" s="182"/>
-      <c r="Q48" s="182"/>
-      <c r="R48" s="183"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="190"/>
+      <c r="H48" s="188"/>
+      <c r="I48" s="188"/>
+      <c r="J48" s="190"/>
+      <c r="K48" s="188"/>
+      <c r="L48" s="190"/>
+      <c r="M48" s="190"/>
+      <c r="N48" s="190"/>
+      <c r="O48" s="190"/>
+      <c r="P48" s="188"/>
+      <c r="Q48" s="188"/>
+      <c r="R48" s="190"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="182"/>
+      <c r="B49" s="188"/>
       <c r="C49" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="D49" s="182"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="182"/>
-      <c r="G49" s="183"/>
-      <c r="H49" s="182"/>
-      <c r="I49" s="182"/>
-      <c r="J49" s="183"/>
-      <c r="K49" s="182"/>
-      <c r="L49" s="183"/>
-      <c r="M49" s="183"/>
-      <c r="N49" s="183"/>
-      <c r="O49" s="183"/>
-      <c r="P49" s="182"/>
-      <c r="Q49" s="182"/>
-      <c r="R49" s="183"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="190"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="190"/>
+      <c r="H49" s="188"/>
+      <c r="I49" s="188"/>
+      <c r="J49" s="190"/>
+      <c r="K49" s="188"/>
+      <c r="L49" s="190"/>
+      <c r="M49" s="190"/>
+      <c r="N49" s="190"/>
+      <c r="O49" s="190"/>
+      <c r="P49" s="188"/>
+      <c r="Q49" s="188"/>
+      <c r="R49" s="190"/>
     </row>
     <row r="50" spans="2:18" ht="56">
       <c r="B50" s="103" t="s">
@@ -21063,7 +21063,7 @@
       </c>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="182" t="s">
+      <c r="B51" s="188" t="s">
         <v>377</v>
       </c>
       <c r="C51" s="103" t="s">
@@ -21075,48 +21075,48 @@
       <c r="E51" s="104">
         <v>2021</v>
       </c>
-      <c r="F51" s="182" t="s">
+      <c r="F51" s="188" t="s">
         <v>291</v>
       </c>
-      <c r="G51" s="183">
+      <c r="G51" s="190">
         <v>6</v>
       </c>
-      <c r="H51" s="182" t="s">
+      <c r="H51" s="188" t="s">
         <v>397</v>
       </c>
-      <c r="I51" s="182" t="s">
+      <c r="I51" s="188" t="s">
         <v>398</v>
       </c>
-      <c r="J51" s="183" t="s">
+      <c r="J51" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="K51" s="182" t="s">
+      <c r="K51" s="188" t="s">
         <v>313</v>
       </c>
-      <c r="L51" s="183" t="s">
+      <c r="L51" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="M51" s="183" t="s">
+      <c r="M51" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="N51" s="183" t="s">
+      <c r="N51" s="190" t="s">
         <v>295</v>
       </c>
-      <c r="O51" s="183" t="s">
+      <c r="O51" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="P51" s="182" t="s">
+      <c r="P51" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="Q51" s="182" t="s">
+      <c r="Q51" s="188" t="s">
         <v>295</v>
       </c>
-      <c r="R51" s="183" t="s">
+      <c r="R51" s="190" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="182"/>
+      <c r="B52" s="188"/>
       <c r="C52" s="103" t="s">
         <v>315</v>
       </c>
@@ -21126,22 +21126,22 @@
       <c r="E52" s="104">
         <v>2017</v>
       </c>
-      <c r="F52" s="182"/>
-      <c r="G52" s="183"/>
-      <c r="H52" s="182"/>
-      <c r="I52" s="182"/>
-      <c r="J52" s="183"/>
-      <c r="K52" s="182"/>
-      <c r="L52" s="183"/>
-      <c r="M52" s="183"/>
-      <c r="N52" s="183"/>
-      <c r="O52" s="183"/>
-      <c r="P52" s="182"/>
-      <c r="Q52" s="182"/>
-      <c r="R52" s="183"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="190"/>
+      <c r="H52" s="188"/>
+      <c r="I52" s="188"/>
+      <c r="J52" s="190"/>
+      <c r="K52" s="188"/>
+      <c r="L52" s="190"/>
+      <c r="M52" s="190"/>
+      <c r="N52" s="190"/>
+      <c r="O52" s="190"/>
+      <c r="P52" s="188"/>
+      <c r="Q52" s="188"/>
+      <c r="R52" s="190"/>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="182"/>
+      <c r="B53" s="188"/>
       <c r="C53" s="103" t="s">
         <v>49</v>
       </c>
@@ -21151,22 +21151,22 @@
       <c r="E53" s="104">
         <v>2016</v>
       </c>
-      <c r="F53" s="182"/>
-      <c r="G53" s="183"/>
-      <c r="H53" s="182"/>
-      <c r="I53" s="182"/>
-      <c r="J53" s="183"/>
-      <c r="K53" s="182"/>
-      <c r="L53" s="183"/>
-      <c r="M53" s="183"/>
-      <c r="N53" s="183"/>
-      <c r="O53" s="183"/>
-      <c r="P53" s="182"/>
-      <c r="Q53" s="182"/>
-      <c r="R53" s="183"/>
+      <c r="F53" s="188"/>
+      <c r="G53" s="190"/>
+      <c r="H53" s="188"/>
+      <c r="I53" s="188"/>
+      <c r="J53" s="190"/>
+      <c r="K53" s="188"/>
+      <c r="L53" s="190"/>
+      <c r="M53" s="190"/>
+      <c r="N53" s="190"/>
+      <c r="O53" s="190"/>
+      <c r="P53" s="188"/>
+      <c r="Q53" s="188"/>
+      <c r="R53" s="190"/>
     </row>
     <row r="54" spans="2:18">
-      <c r="B54" s="182"/>
+      <c r="B54" s="188"/>
       <c r="C54" s="103" t="s">
         <v>399</v>
       </c>
@@ -21176,19 +21176,19 @@
       <c r="E54" s="104">
         <v>2016</v>
       </c>
-      <c r="F54" s="182"/>
-      <c r="G54" s="183"/>
-      <c r="H54" s="182"/>
-      <c r="I54" s="182"/>
-      <c r="J54" s="183"/>
-      <c r="K54" s="182"/>
-      <c r="L54" s="183"/>
-      <c r="M54" s="183"/>
-      <c r="N54" s="183"/>
-      <c r="O54" s="183"/>
-      <c r="P54" s="182"/>
-      <c r="Q54" s="182"/>
-      <c r="R54" s="183"/>
+      <c r="F54" s="188"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="188"/>
+      <c r="I54" s="188"/>
+      <c r="J54" s="190"/>
+      <c r="K54" s="188"/>
+      <c r="L54" s="190"/>
+      <c r="M54" s="190"/>
+      <c r="N54" s="190"/>
+      <c r="O54" s="190"/>
+      <c r="P54" s="188"/>
+      <c r="Q54" s="188"/>
+      <c r="R54" s="190"/>
     </row>
     <row r="55" spans="2:18" ht="42">
       <c r="B55" s="103" t="s">
@@ -21203,28 +21203,28 @@
       <c r="E55" s="104">
         <v>2020</v>
       </c>
-      <c r="F55" s="182" t="s">
+      <c r="F55" s="188" t="s">
         <v>402</v>
       </c>
-      <c r="G55" s="183">
+      <c r="G55" s="190">
         <v>2</v>
       </c>
       <c r="H55" s="103" t="s">
         <v>403</v>
       </c>
-      <c r="I55" s="182" t="s">
+      <c r="I55" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="J55" s="183" t="s">
+      <c r="J55" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="K55" s="182" t="s">
+      <c r="K55" s="188" t="s">
         <v>404</v>
       </c>
-      <c r="L55" s="183" t="s">
+      <c r="L55" s="190" t="s">
         <v>295</v>
       </c>
-      <c r="M55" s="183" t="s">
+      <c r="M55" s="190" t="s">
         <v>294</v>
       </c>
       <c r="N55" s="104" t="s">
@@ -21236,10 +21236,10 @@
       <c r="P55" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="Q55" s="182" t="s">
+      <c r="Q55" s="188" t="s">
         <v>295</v>
       </c>
-      <c r="R55" s="183" t="s">
+      <c r="R55" s="190" t="s">
         <v>295</v>
       </c>
     </row>
@@ -21256,16 +21256,16 @@
       <c r="E56" s="104">
         <v>2014</v>
       </c>
-      <c r="F56" s="182"/>
-      <c r="G56" s="183"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="190"/>
       <c r="H56" s="103" t="s">
         <v>405</v>
       </c>
-      <c r="I56" s="182"/>
-      <c r="J56" s="183"/>
-      <c r="K56" s="182"/>
-      <c r="L56" s="183"/>
-      <c r="M56" s="183"/>
+      <c r="I56" s="188"/>
+      <c r="J56" s="190"/>
+      <c r="K56" s="188"/>
+      <c r="L56" s="190"/>
+      <c r="M56" s="190"/>
       <c r="N56" s="104" t="s">
         <v>294</v>
       </c>
@@ -21275,8 +21275,8 @@
       <c r="P56" s="103" t="s">
         <v>406</v>
       </c>
-      <c r="Q56" s="182"/>
-      <c r="R56" s="183"/>
+      <c r="Q56" s="188"/>
+      <c r="R56" s="190"/>
     </row>
     <row r="57" spans="2:18" ht="28">
       <c r="B57" s="103" t="s">
@@ -21332,29 +21332,186 @@
       </c>
     </row>
     <row r="58" spans="2:18">
-      <c r="B58" s="184" t="s">
+      <c r="B58" s="199" t="s">
         <v>409</v>
       </c>
-      <c r="C58" s="184"/>
-      <c r="D58" s="184"/>
-      <c r="E58" s="184"/>
-      <c r="F58" s="184"/>
-      <c r="G58" s="184"/>
-      <c r="H58" s="184"/>
-      <c r="I58" s="184"/>
-      <c r="J58" s="184"/>
-      <c r="K58" s="184"/>
-      <c r="L58" s="184"/>
-      <c r="M58" s="184"/>
-      <c r="N58" s="184"/>
-      <c r="O58" s="184"/>
-      <c r="P58" s="184"/>
-      <c r="Q58" s="184"/>
-      <c r="R58" s="184"/>
+      <c r="C58" s="199"/>
+      <c r="D58" s="199"/>
+      <c r="E58" s="199"/>
+      <c r="F58" s="199"/>
+      <c r="G58" s="199"/>
+      <c r="H58" s="199"/>
+      <c r="I58" s="199"/>
+      <c r="J58" s="199"/>
+      <c r="K58" s="199"/>
+      <c r="L58" s="199"/>
+      <c r="M58" s="199"/>
+      <c r="N58" s="199"/>
+      <c r="O58" s="199"/>
+      <c r="P58" s="199"/>
+      <c r="Q58" s="199"/>
+      <c r="R58" s="199"/>
     </row>
     <row r="61" spans="2:18" ht="28" customHeight="1"/>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="B58:R58"/>
+    <mergeCell ref="P51:P54"/>
+    <mergeCell ref="Q51:Q54"/>
+    <mergeCell ref="R51:R54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="K51:K54"/>
+    <mergeCell ref="L51:L54"/>
+    <mergeCell ref="M51:M54"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="O51:O54"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="O46:O49"/>
+    <mergeCell ref="P46:P49"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="Q46:Q49"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R32"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B4:B35"/>
@@ -21379,163 +21536,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R32"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="Q46:Q49"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="O46:O49"/>
-    <mergeCell ref="P46:P49"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="B58:R58"/>
-    <mergeCell ref="P51:P54"/>
-    <mergeCell ref="Q51:Q54"/>
-    <mergeCell ref="R51:R54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="K51:K54"/>
-    <mergeCell ref="L51:L54"/>
-    <mergeCell ref="M51:M54"/>
-    <mergeCell ref="N51:N54"/>
-    <mergeCell ref="O51:O54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21546,7 +21546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8536064D-0525-524A-89B2-CBD9EFFCFA45}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="A107" zoomScale="117" workbookViewId="0">
       <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
@@ -21557,24 +21557,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="E1" s="200" t="s">
+      <c r="E1" s="203" t="s">
         <v>410</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203" t="s">
         <v>411</v>
       </c>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200" t="s">
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203" t="s">
         <v>412</v>
       </c>
-      <c r="P1" s="200"/>
+      <c r="P1" s="203"/>
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="A2" s="56" t="s">
@@ -22661,10 +22661,10 @@
       <c r="AO46" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="AP46" s="210"/>
-      <c r="AQ46" s="211"/>
-      <c r="AR46" s="211"/>
-      <c r="AS46" s="212"/>
+      <c r="AP46" s="200"/>
+      <c r="AQ46" s="201"/>
+      <c r="AR46" s="201"/>
+      <c r="AS46" s="202"/>
     </row>
     <row r="47" spans="3:45" ht="153">
       <c r="D47" s="105" t="s">
@@ -22749,7 +22749,7 @@
       <c r="AS47" s="111"/>
     </row>
     <row r="48" spans="3:45" ht="187">
-      <c r="C48" s="200" t="s">
+      <c r="C48" s="203" t="s">
         <v>410</v>
       </c>
       <c r="D48" s="112" t="s">
@@ -22838,8 +22838,8 @@
       <c r="AS48" s="111"/>
     </row>
     <row r="49" spans="3:45" ht="153">
-      <c r="C49" s="200"/>
-      <c r="D49" s="213" t="s">
+      <c r="C49" s="203"/>
+      <c r="D49" s="204" t="s">
         <v>416</v>
       </c>
       <c r="E49" s="119"/>
@@ -22927,8 +22927,8 @@
       </c>
     </row>
     <row r="50" spans="3:45" ht="102">
-      <c r="C50" s="200"/>
-      <c r="D50" s="214"/>
+      <c r="C50" s="203"/>
+      <c r="D50" s="205"/>
       <c r="E50" s="108"/>
       <c r="F50" s="108"/>
       <c r="G50" s="128" t="s">
@@ -22990,8 +22990,8 @@
       <c r="AS50" s="111"/>
     </row>
     <row r="51" spans="3:45" ht="102">
-      <c r="C51" s="200"/>
-      <c r="D51" s="213" t="s">
+      <c r="C51" s="203"/>
+      <c r="D51" s="204" t="s">
         <v>116</v>
       </c>
       <c r="E51" s="119"/>
@@ -23059,8 +23059,8 @@
       </c>
     </row>
     <row r="52" spans="3:45" ht="68">
-      <c r="C52" s="200"/>
-      <c r="D52" s="214"/>
+      <c r="C52" s="203"/>
+      <c r="D52" s="205"/>
       <c r="E52" s="137"/>
       <c r="F52" s="137"/>
       <c r="G52" s="137"/>
@@ -23108,7 +23108,7 @@
       <c r="AS52" s="111"/>
     </row>
     <row r="53" spans="3:45" ht="68">
-      <c r="C53" s="200" t="s">
+      <c r="C53" s="203" t="s">
         <v>411</v>
       </c>
       <c r="D53" s="105" t="s">
@@ -23177,7 +23177,7 @@
       <c r="AS53" s="111"/>
     </row>
     <row r="54" spans="3:45" ht="136">
-      <c r="C54" s="200"/>
+      <c r="C54" s="203"/>
       <c r="D54" s="105" t="s">
         <v>418</v>
       </c>
@@ -23234,7 +23234,7 @@
       <c r="AS54" s="111"/>
     </row>
     <row r="55" spans="3:45" ht="221">
-      <c r="C55" s="200"/>
+      <c r="C55" s="203"/>
       <c r="D55" s="105" t="s">
         <v>419</v>
       </c>
@@ -23297,7 +23297,7 @@
       <c r="AS55" s="111"/>
     </row>
     <row r="56" spans="3:45" ht="119">
-      <c r="C56" s="200"/>
+      <c r="C56" s="203"/>
       <c r="D56" s="105" t="s">
         <v>420</v>
       </c>
@@ -23370,7 +23370,7 @@
       <c r="AS56" s="111"/>
     </row>
     <row r="57" spans="3:45" ht="17">
-      <c r="C57" s="200"/>
+      <c r="C57" s="203"/>
       <c r="D57" s="105" t="s">
         <v>421</v>
       </c>
@@ -23425,7 +23425,7 @@
       <c r="AS57" s="111"/>
     </row>
     <row r="58" spans="3:45" ht="51">
-      <c r="C58" s="200"/>
+      <c r="C58" s="203"/>
       <c r="D58" s="105" t="s">
         <v>422</v>
       </c>
@@ -23482,7 +23482,7 @@
       <c r="AS58" s="111"/>
     </row>
     <row r="59" spans="3:45" ht="102">
-      <c r="C59" s="200"/>
+      <c r="C59" s="203"/>
       <c r="D59" s="105" t="s">
         <v>116</v>
       </c>
@@ -23537,7 +23537,7 @@
       <c r="AS59" s="111"/>
     </row>
     <row r="60" spans="3:45" ht="34">
-      <c r="C60" s="200" t="s">
+      <c r="C60" s="203" t="s">
         <v>412</v>
       </c>
       <c r="D60" s="105" t="s">
@@ -23606,7 +23606,7 @@
       <c r="AS60" s="111"/>
     </row>
     <row r="61" spans="3:45" ht="34">
-      <c r="C61" s="200"/>
+      <c r="C61" s="203"/>
       <c r="D61" s="105" t="s">
         <v>424</v>
       </c>
@@ -23696,75 +23696,75 @@
     </row>
     <row r="65" spans="4:27">
       <c r="D65" s="141"/>
-      <c r="E65" s="201" t="s">
+      <c r="E65" s="211" t="s">
         <v>414</v>
       </c>
-      <c r="F65" s="203" t="s">
+      <c r="F65" s="210" t="s">
         <v>410</v>
       </c>
-      <c r="G65" s="203"/>
-      <c r="H65" s="203"/>
-      <c r="I65" s="203"/>
-      <c r="J65" s="203"/>
-      <c r="K65" s="203"/>
-      <c r="L65" s="203"/>
-      <c r="M65" s="203"/>
-      <c r="N65" s="203"/>
-      <c r="O65" s="203"/>
-      <c r="P65" s="203"/>
-      <c r="Q65" s="203"/>
-      <c r="R65" s="203"/>
-      <c r="S65" s="204" t="s">
+      <c r="G65" s="210"/>
+      <c r="H65" s="210"/>
+      <c r="I65" s="210"/>
+      <c r="J65" s="210"/>
+      <c r="K65" s="210"/>
+      <c r="L65" s="210"/>
+      <c r="M65" s="210"/>
+      <c r="N65" s="210"/>
+      <c r="O65" s="210"/>
+      <c r="P65" s="210"/>
+      <c r="Q65" s="210"/>
+      <c r="R65" s="210"/>
+      <c r="S65" s="206" t="s">
         <v>549</v>
       </c>
-      <c r="T65" s="205"/>
-      <c r="U65" s="205"/>
-      <c r="V65" s="205"/>
-      <c r="W65" s="205"/>
-      <c r="X65" s="205"/>
-      <c r="Y65" s="205"/>
-      <c r="Z65" s="204" t="s">
+      <c r="T65" s="213"/>
+      <c r="U65" s="213"/>
+      <c r="V65" s="213"/>
+      <c r="W65" s="213"/>
+      <c r="X65" s="213"/>
+      <c r="Y65" s="213"/>
+      <c r="Z65" s="206" t="s">
         <v>412</v>
       </c>
-      <c r="AA65" s="208"/>
+      <c r="AA65" s="207"/>
     </row>
     <row r="66" spans="4:27">
       <c r="D66" s="141"/>
-      <c r="E66" s="202"/>
-      <c r="F66" s="203" t="s">
+      <c r="E66" s="212"/>
+      <c r="F66" s="210" t="s">
         <v>550</v>
       </c>
-      <c r="G66" s="203"/>
-      <c r="H66" s="203"/>
-      <c r="I66" s="203"/>
-      <c r="J66" s="203"/>
-      <c r="K66" s="203" t="s">
+      <c r="G66" s="210"/>
+      <c r="H66" s="210"/>
+      <c r="I66" s="210"/>
+      <c r="J66" s="210"/>
+      <c r="K66" s="210" t="s">
         <v>551</v>
       </c>
-      <c r="L66" s="203"/>
-      <c r="M66" s="203"/>
-      <c r="N66" s="203"/>
-      <c r="O66" s="203" t="s">
+      <c r="L66" s="210"/>
+      <c r="M66" s="210"/>
+      <c r="N66" s="210"/>
+      <c r="O66" s="210" t="s">
         <v>552</v>
       </c>
-      <c r="P66" s="203"/>
-      <c r="Q66" s="203"/>
-      <c r="R66" s="203"/>
-      <c r="S66" s="206"/>
-      <c r="T66" s="207"/>
-      <c r="U66" s="207"/>
-      <c r="V66" s="207"/>
-      <c r="W66" s="207"/>
-      <c r="X66" s="207"/>
-      <c r="Y66" s="207"/>
-      <c r="Z66" s="206"/>
+      <c r="P66" s="210"/>
+      <c r="Q66" s="210"/>
+      <c r="R66" s="210"/>
+      <c r="S66" s="208"/>
+      <c r="T66" s="214"/>
+      <c r="U66" s="214"/>
+      <c r="V66" s="214"/>
+      <c r="W66" s="214"/>
+      <c r="X66" s="214"/>
+      <c r="Y66" s="214"/>
+      <c r="Z66" s="208"/>
       <c r="AA66" s="209"/>
     </row>
     <row r="67" spans="4:27" ht="34">
       <c r="D67" s="141" t="s">
         <v>553</v>
       </c>
-      <c r="E67" s="172"/>
+      <c r="E67" s="173"/>
       <c r="F67" s="141" t="s">
         <v>554</v>
       </c>
@@ -23916,6 +23916,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C60:C61"/>
     <mergeCell ref="AP46:AS46"/>
     <mergeCell ref="C48:C52"/>
     <mergeCell ref="D49:D50"/>
@@ -23924,11 +23929,6 @@
     <mergeCell ref="F66:J66"/>
     <mergeCell ref="K66:N66"/>
     <mergeCell ref="O66:R66"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="C60:C61"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="F65:R65"/>
     <mergeCell ref="S65:Y66"/>

--- a/supplementary 3.xlsx
+++ b/supplementary 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Downloads/wageningen/research records/record/supplementary github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A62F8DE-48C3-8141-A189-0EF0BD631D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE405AAE-5A43-3949-90FF-961BDE81F3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1500" windowWidth="23440" windowHeight="13900" activeTab="1" xr2:uid="{AB2C3D19-D519-034F-8D16-2CCDF5C54FD3}"/>
+    <workbookView xWindow="1820" yWindow="1500" windowWidth="23440" windowHeight="13900" firstSheet="1" activeTab="4" xr2:uid="{AB2C3D19-D519-034F-8D16-2CCDF5C54FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="overview-category" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,26 @@
     <definedName name="_xlchart.v1.0" hidden="1">'research-objects-categories'!$P$9:$Q$18</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'research-objects-categories'!$R$8</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'research-objects-numbers'!$J$3:$J$12</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'pre-processing'!$E$65:$AA$67</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'pre-processing'!$E$68:$AA$68</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'pre-processing'!$E$65:$AA$67</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'pre-processing'!$E$68:$AA$68</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'research-objects-categories'!$R$9:$R$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'research-objects-breeds'!$K$19:$L$33</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'research-objects-breeds'!$M$19:$M$33</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'research-objects-categories'!$P$9:$Q$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'research-objects-categories'!$R$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'research-objects-categories'!$R$9:$R$18</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'research-objects-breeds'!$K$19:$L$33</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'research-objects-breeds'!$M$19:$M$33</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'research-objects-numbers'!$I$3:$I$12</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'research-objects-numbers'!$J$2</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'research-objects-numbers'!$I$3:$I$12</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'research-objects-numbers'!$J$2</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'research-objects-numbers'!$J$3:$J$12</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">'research-objects-numbers'!$I$3:$I$12</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">'research-objects-numbers'!$J$2</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">'research-objects-numbers'!$J$3:$J$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId8"/>
-    <pivotCache cacheId="5" r:id="rId9"/>
-    <pivotCache cacheId="6" r:id="rId10"/>
-    <pivotCache cacheId="7" r:id="rId11"/>
+    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="6" r:id="rId9"/>
+    <pivotCache cacheId="7" r:id="rId10"/>
+    <pivotCache cacheId="8" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="571">
   <si>
     <t>article types</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -854,14 +857,6 @@
   </si>
   <si>
     <t>Holstein</t>
-  </si>
-  <si>
-    <t>r/w Holstein</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>half-sib Nellore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Alpine Brown</t>
@@ -2280,6 +2275,22 @@
       </rPr>
       <t>percentages of noises removal</t>
     </r>
+  </si>
+  <si>
+    <t>Unknow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Half-sib Nellore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/W Holstein</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3399,29 +3410,35 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3435,16 +3452,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3456,37 +3464,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3498,6 +3488,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3507,8 +3503,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3525,16 +3548,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3561,8 +3575,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3571,9 +3585,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6179,7 +6190,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6190,7 +6201,7 @@
               <a:t>a.</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6201,7 +6212,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6212,7 +6223,7 @@
               <a:t>cattle</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6223,7 +6234,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6286,10 +6297,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6308,72 +6319,72 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="75000"/>
                     <a:lumOff val="25000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>c.</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="75000"/>
                     <a:lumOff val="25000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="75000"/>
                     <a:lumOff val="25000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>cattle</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="75000"/>
                     <a:lumOff val="25000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="75000"/>
                     <a:lumOff val="25000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>breeds</a:t>
             </a:r>
@@ -6741,10 +6752,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.5</cx:f>
+        <cx:f>_xlchart.v2.11</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.7</cx:f>
+        <cx:f>_xlchart.v2.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6984,7 +6995,7 @@
         <cx:series layoutId="funnel" uniqueId="{AE3E509E-DC56-2948-9FD0-491ABCC169AA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v2.6</cx:f>
+              <cx:f>_xlchart.v2.12</cx:f>
               <cx:v>frequecy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7021,7 +7032,7 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>ranges</a:t>
+                  <a:t>Ranges</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7134,10 +7145,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.11</cx:f>
+        <cx:f dir="row">_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f dir="row">_xlchart.v1.12</cx:f>
+        <cx:f dir="row">_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -13190,7 +13201,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F777DAA4-F6CC-9147-BEA0-1008F4EAA4EC}" name="数据透视表2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F777DAA4-F6CC-9147-BEA0-1008F4EAA4EC}" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="H2:Q12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -13438,7 +13449,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6A9C866-737E-2E4A-8354-17718A4B3CB0}" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="papers">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6A9C866-737E-2E4A-8354-17718A4B3CB0}" name="数据透视表2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="papers">
   <location ref="E28:E72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -13643,7 +13654,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C030D2C4-5C64-8F4B-9370-41AD7B69BE7E}" name="数据透视表4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="p-pure">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C030D2C4-5C64-8F4B-9370-41AD7B69BE7E}" name="数据透视表4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="p-pure">
   <location ref="E17:E57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -13832,7 +13843,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D5C66F4-C643-DC47-AF27-4947DD519976}" name="数据透视表3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D5C66F4-C643-DC47-AF27-4947DD519976}" name="数据透视表3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="D1:G41" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -14469,20 +14480,20 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146" t="s">
+      <c r="C1" s="163"/>
+      <c r="D1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="148"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="154"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14494,13 +14505,13 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="166" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -14525,20 +14536,20 @@
         <v>13</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="M2" s="149" t="s">
+      <c r="M2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="153" t="s">
+      <c r="N2" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="154">
+      <c r="O2" s="156">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="149"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="152"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="167"/>
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
@@ -14559,13 +14570,13 @@
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="12"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="155"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="157"/>
     </row>
     <row r="4" spans="1:15" ht="32">
-      <c r="A4" s="149"/>
-      <c r="B4" s="150"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
@@ -14581,13 +14592,13 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="155"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="157"/>
     </row>
     <row r="5" spans="1:15" ht="14" customHeight="1">
-      <c r="A5" s="149"/>
-      <c r="B5" s="150"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
@@ -14601,13 +14612,13 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="16"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="155"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="157"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="149"/>
-      <c r="B6" s="150"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
@@ -14621,16 +14632,16 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="16"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="156"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="158"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="149"/>
-      <c r="B7" s="157" t="s">
+      <c r="A7" s="151"/>
+      <c r="B7" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="148"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
@@ -14655,7 +14666,7 @@
       <c r="K7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="149"/>
+      <c r="M7" s="151"/>
       <c r="N7" s="23" t="s">
         <v>27</v>
       </c>
@@ -14664,11 +14675,11 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="149"/>
-      <c r="B8" s="157" t="s">
+      <c r="A8" s="151"/>
+      <c r="B8" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="148"/>
+      <c r="C8" s="154"/>
       <c r="D8" s="14" t="s">
         <v>33</v>
       </c>
@@ -14693,7 +14704,7 @@
       <c r="K8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="149"/>
+      <c r="M8" s="151"/>
       <c r="N8" s="23" t="s">
         <v>32</v>
       </c>
@@ -14702,8 +14713,8 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="149"/>
-      <c r="B9" s="150" t="s">
+      <c r="A9" s="151"/>
+      <c r="B9" s="147" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -14729,17 +14740,17 @@
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="153" t="s">
+      <c r="M9" s="151"/>
+      <c r="N9" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="154">
+      <c r="O9" s="156">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="149"/>
-      <c r="B10" s="150"/>
+      <c r="A10" s="151"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="28" t="s">
         <v>46</v>
       </c>
@@ -14755,13 +14766,13 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="155"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="157"/>
     </row>
     <row r="11" spans="1:15" s="29" customFormat="1">
-      <c r="A11" s="149"/>
-      <c r="B11" s="150"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="13" t="s">
         <v>48</v>
       </c>
@@ -14775,13 +14786,13 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="16"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="156"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="158"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="149"/>
-      <c r="B12" s="150" t="s">
+      <c r="A12" s="151"/>
+      <c r="B12" s="147" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -14801,17 +14812,17 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="16"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="150" t="s">
+      <c r="M12" s="151"/>
+      <c r="N12" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="158">
+      <c r="O12" s="148">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="149"/>
-      <c r="B13" s="150"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="13" t="s">
         <v>54</v>
       </c>
@@ -14825,13 +14836,13 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="16"/>
-      <c r="M13" s="149"/>
-      <c r="N13" s="150"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="147"/>
       <c r="O13" s="159"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="149"/>
-      <c r="B14" s="150"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="13" t="s">
         <v>55</v>
       </c>
@@ -14847,16 +14858,16 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="16"/>
-      <c r="M14" s="149"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="160"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="149"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="149"/>
-      <c r="B15" s="157" t="s">
+      <c r="A15" s="151"/>
+      <c r="B15" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="148"/>
+      <c r="C15" s="154"/>
       <c r="D15" s="14" t="s">
         <v>59</v>
       </c>
@@ -14869,7 +14880,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="16"/>
-      <c r="M15" s="149"/>
+      <c r="M15" s="151"/>
       <c r="N15" s="33" t="s">
         <v>58</v>
       </c>
@@ -14878,8 +14889,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="29" customFormat="1">
-      <c r="A16" s="149"/>
-      <c r="B16" s="161" t="s">
+      <c r="A16" s="151"/>
+      <c r="B16" s="160" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="35" t="s">
@@ -14897,17 +14908,17 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="16"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="162" t="s">
+      <c r="M16" s="151"/>
+      <c r="N16" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="O16" s="158">
+      <c r="O16" s="148">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="29" customFormat="1">
-      <c r="A17" s="149"/>
-      <c r="B17" s="160"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="149"/>
       <c r="C17" s="35" t="s">
         <v>64</v>
       </c>
@@ -14921,13 +14932,13 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="16"/>
-      <c r="M17" s="149"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="160"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="149"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="149"/>
-      <c r="B18" s="150" t="s">
+      <c r="A18" s="151"/>
+      <c r="B18" s="147" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -14945,17 +14956,17 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="16"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="150" t="s">
+      <c r="M18" s="151"/>
+      <c r="N18" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="158">
+      <c r="O18" s="148">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="149"/>
-      <c r="B19" s="150"/>
+      <c r="A19" s="151"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="13" t="s">
         <v>68</v>
       </c>
@@ -14969,16 +14980,16 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="16"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="160"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="149"/>
     </row>
     <row r="20" spans="1:15" ht="32">
-      <c r="A20" s="149"/>
-      <c r="B20" s="164" t="s">
+      <c r="A20" s="151"/>
+      <c r="B20" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="166"/>
+      <c r="C20" s="150"/>
       <c r="D20" s="39" t="s">
         <v>13</v>
       </c>
@@ -14989,7 +15000,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
-      <c r="M20" s="149"/>
+      <c r="M20" s="151"/>
       <c r="N20" s="40" t="s">
         <v>70</v>
       </c>
@@ -14998,7 +15009,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="149"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="41" t="s">
         <v>71</v>
       </c>
@@ -15015,7 +15026,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
-      <c r="M21" s="149"/>
+      <c r="M21" s="151"/>
       <c r="N21" s="41" t="s">
         <v>71</v>
       </c>
@@ -15024,13 +15035,13 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="154" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -15043,7 +15054,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
-      <c r="M22" s="149" t="s">
+      <c r="M22" s="151" t="s">
         <v>74</v>
       </c>
       <c r="N22" s="33" t="s">
@@ -15054,11 +15065,11 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="167"/>
-      <c r="B23" s="157" t="s">
+      <c r="A23" s="152"/>
+      <c r="B23" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="148" t="s">
+      <c r="C23" s="154" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -15071,7 +15082,7 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="16"/>
-      <c r="M23" s="167"/>
+      <c r="M23" s="152"/>
       <c r="N23" s="33" t="s">
         <v>27</v>
       </c>
@@ -15083,10 +15094,10 @@
       <c r="A24" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="165" t="s">
+      <c r="C24" s="146" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="42" t="s">
@@ -15134,14 +15145,13 @@
     <row r="39" ht="19" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="N2:N6"/>
     <mergeCell ref="O2:O6"/>
     <mergeCell ref="B7:C7"/>
@@ -15156,13 +15166,14 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="O16:O17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15174,7 +15185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5138D383-F8CF-D144-ACA9-A4E93EDF7AD8}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -16220,7 +16231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A06229-4D33-F942-B615-F6B4A9C0442E}">
   <dimension ref="A1:AU102"/>
   <sheetViews>
-    <sheetView topLeftCell="F35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="F20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
@@ -16277,15 +16288,15 @@
       </c>
     </row>
     <row r="3" spans="1:47" s="56" customFormat="1">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="180" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
       <c r="N3" s="54" t="s">
         <v>180</v>
       </c>
@@ -16294,25 +16305,25 @@
       </c>
     </row>
     <row r="4" spans="1:47" s="45" customFormat="1" ht="43" customHeight="1">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="179" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
       <c r="H4" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="174" t="s">
+      <c r="I4" s="179" t="s">
         <v>184</v>
       </c>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
       <c r="N4" s="54" t="s">
         <v>185</v>
       </c>
@@ -16321,12 +16332,12 @@
       </c>
     </row>
     <row r="5" spans="1:47" ht="20">
-      <c r="A5" s="173"/>
-      <c r="B5" s="168" t="s">
+      <c r="A5" s="172"/>
+      <c r="B5" s="176" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="170"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="178"/>
       <c r="E5" s="58" t="s">
         <v>188</v>
       </c>
@@ -16375,11 +16386,11 @@
       <c r="A6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="168">
+      <c r="B6" s="176">
         <v>29</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="170"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="178"/>
       <c r="E6" s="58">
         <v>4</v>
       </c>
@@ -16422,7 +16433,7 @@
       <c r="AU6" s="59"/>
     </row>
     <row r="7" spans="1:47" ht="17" customHeight="1">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="168" t="s">
         <v>196</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -16458,7 +16469,7 @@
       <c r="M7" s="60"/>
     </row>
     <row r="8" spans="1:47" ht="20">
-      <c r="A8" s="176"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="69" t="s">
         <v>47</v>
       </c>
@@ -16486,16 +16497,16 @@
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
       <c r="M8" s="60"/>
-      <c r="P8" s="172" t="s">
+      <c r="P8" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="173"/>
+      <c r="Q8" s="172"/>
       <c r="R8" s="62" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:47" ht="20" customHeight="1">
-      <c r="A9" s="176"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="69" t="s">
         <v>51</v>
       </c>
@@ -16517,18 +16528,18 @@
       <c r="J9" s="74"/>
       <c r="K9" s="74"/>
       <c r="M9" s="60"/>
-      <c r="P9" s="178" t="s">
+      <c r="P9" s="173" t="s">
         <v>182</v>
       </c>
-      <c r="Q9" s="168" t="s">
+      <c r="Q9" s="176" t="s">
         <v>187</v>
       </c>
-      <c r="R9" s="168">
+      <c r="R9" s="176">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:47">
-      <c r="A10" s="176"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="69" t="s">
         <v>56</v>
       </c>
@@ -16549,12 +16560,12 @@
       <c r="I10" s="74"/>
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="169"/>
-      <c r="R10" s="169"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
     </row>
     <row r="11" spans="1:47">
-      <c r="A11" s="176"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="69" t="s">
         <v>28</v>
       </c>
@@ -16573,12 +16584,12 @@
       <c r="I11" s="74"/>
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
-      <c r="P11" s="179"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="170"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="178"/>
     </row>
     <row r="12" spans="1:47">
-      <c r="A12" s="176"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="69" t="s">
         <v>33</v>
       </c>
@@ -16594,7 +16605,7 @@
       <c r="I12" s="74"/>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
-      <c r="P12" s="179"/>
+      <c r="P12" s="174"/>
       <c r="Q12" s="58" t="s">
         <v>188</v>
       </c>
@@ -16603,7 +16614,7 @@
       </c>
     </row>
     <row r="13" spans="1:47">
-      <c r="A13" s="176"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="69" t="s">
         <v>57</v>
       </c>
@@ -16620,7 +16631,7 @@
       <c r="I13" s="74"/>
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
-      <c r="P13" s="179"/>
+      <c r="P13" s="174"/>
       <c r="Q13" s="58" t="s">
         <v>189</v>
       </c>
@@ -16629,7 +16640,7 @@
       </c>
     </row>
     <row r="14" spans="1:47">
-      <c r="A14" s="176"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="69" t="s">
         <v>24</v>
       </c>
@@ -16646,7 +16657,7 @@
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
-      <c r="P14" s="180"/>
+      <c r="P14" s="175"/>
       <c r="Q14" s="58" t="s">
         <v>190</v>
       </c>
@@ -16655,7 +16666,7 @@
       </c>
     </row>
     <row r="15" spans="1:47" ht="28">
-      <c r="A15" s="176"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="69" t="s">
         <v>29</v>
       </c>
@@ -16683,7 +16694,7 @@
       </c>
     </row>
     <row r="16" spans="1:47">
-      <c r="A16" s="177"/>
+      <c r="A16" s="170"/>
       <c r="B16" s="78" t="s">
         <v>41</v>
       </c>
@@ -16698,7 +16709,7 @@
       <c r="I16" s="81"/>
       <c r="J16" s="81"/>
       <c r="K16" s="81"/>
-      <c r="P16" s="174" t="s">
+      <c r="P16" s="179" t="s">
         <v>184</v>
       </c>
       <c r="Q16" s="58" t="s">
@@ -16711,7 +16722,7 @@
     <row r="17" spans="2:18">
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
-      <c r="P17" s="174"/>
+      <c r="P17" s="179"/>
       <c r="Q17" s="58" t="s">
         <v>193</v>
       </c>
@@ -16722,7 +16733,7 @@
     <row r="18" spans="2:18">
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
-      <c r="P18" s="174"/>
+      <c r="P18" s="179"/>
       <c r="Q18" s="58" t="s">
         <v>68</v>
       </c>
@@ -17132,18 +17143,18 @@
     <row r="102" ht="16" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P9:P14"/>
     <mergeCell ref="Q9:Q11"/>
     <mergeCell ref="R9:R11"/>
     <mergeCell ref="P16:P18"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17155,8 +17166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DEEB79-1B83-0B4D-A15A-8D9AEE80E6E7}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="M10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="N17" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17270,7 +17281,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="168" t="s">
         <v>196</v>
       </c>
       <c r="B3" s="83" t="s">
@@ -17320,7 +17331,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="176"/>
+      <c r="A4" s="169"/>
       <c r="B4" s="88" t="s">
         <v>57</v>
       </c>
@@ -17350,7 +17361,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="176"/>
+      <c r="A5" s="169"/>
       <c r="B5" s="88" t="s">
         <v>24</v>
       </c>
@@ -17376,7 +17387,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="176"/>
+      <c r="A6" s="169"/>
       <c r="B6" s="88" t="s">
         <v>7</v>
       </c>
@@ -17400,7 +17411,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="176"/>
+      <c r="A7" s="169"/>
       <c r="B7" s="88" t="s">
         <v>29</v>
       </c>
@@ -17424,7 +17435,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="176"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="88" t="s">
         <v>59</v>
       </c>
@@ -17451,7 +17462,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="176"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="88" t="s">
         <v>37</v>
       </c>
@@ -17472,7 +17483,7 @@
       <c r="O9" s="74"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="176"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="88" t="s">
         <v>19</v>
       </c>
@@ -17494,7 +17505,7 @@
       <c r="P10" s="74"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="176"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="88" t="s">
         <v>56</v>
       </c>
@@ -17516,7 +17527,7 @@
       <c r="P11" s="74"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="176"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="88"/>
       <c r="C12" s="89" t="s">
         <v>33</v>
@@ -17536,7 +17547,7 @@
       <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="177"/>
+      <c r="A13" s="170"/>
       <c r="B13" s="80"/>
       <c r="C13" s="90" t="s">
         <v>11</v>
@@ -17651,7 +17662,7 @@
       </c>
       <c r="K22" s="181"/>
       <c r="L22" s="82" t="s">
-        <v>226</v>
+        <v>570</v>
       </c>
       <c r="M22" s="58">
         <v>1</v>
@@ -17716,7 +17727,7 @@
       </c>
       <c r="K25" s="181"/>
       <c r="L25" s="82" t="s">
-        <v>227</v>
+        <v>569</v>
       </c>
       <c r="M25" s="58">
         <v>1</v>
@@ -17736,7 +17747,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="181" t="s">
-        <v>116</v>
+        <v>568</v>
       </c>
       <c r="L26" s="82" t="s">
         <v>210</v>
@@ -17823,7 +17834,7 @@
       </c>
       <c r="K30" s="181"/>
       <c r="L30" s="82" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M30" s="58">
         <v>1</v>
@@ -17885,10 +17896,10 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>220</v>
+        <v>567</v>
       </c>
       <c r="L33" s="82" t="s">
-        <v>220</v>
+        <v>567</v>
       </c>
       <c r="M33" s="58">
         <v>6</v>
@@ -18130,7 +18141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F018D590-94FF-EA44-987B-D6600E76CD42}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -18146,25 +18157,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="E1" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -18178,7 +18189,7 @@
         <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -18190,10 +18201,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J2" s="56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -18213,7 +18224,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J3">
         <f>COUNTIFS(B2:B40, "&gt;=0", B2:B40, "&lt;25")</f>
@@ -18237,7 +18248,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J4">
         <f>COUNTIFS(B2:B40, "&gt;=25", B2:B40, "&lt;50")</f>
@@ -18264,7 +18275,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J5">
         <f>COUNTIFS(B2:B40, "&gt;=50", B2:B40, "&lt;75")</f>
@@ -18282,19 +18293,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G6">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J6">
         <f>COUNTIFS(G3:G40, "&gt;=75", G3:G40, "&lt;100")</f>
@@ -18303,7 +18314,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B7" s="93">
         <v>14</v>
@@ -18321,7 +18332,7 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J7">
         <f>COUNTIFS(B2:B40, "&gt;=100", B2:B40, "&lt;125")</f>
@@ -18339,13 +18350,13 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G8">
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J8">
         <f>COUNTIFS(B2:B40, "&gt;=125", B2:B40, "&lt;150")</f>
@@ -18354,7 +18365,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B9" s="93">
         <v>55</v>
@@ -18372,7 +18383,7 @@
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J9">
         <f>COUNTIFS(G2:G39, "&gt;=150", G2:G39, "&lt;175")</f>
@@ -18396,7 +18407,7 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J10">
         <f>COUNTIFS(G3:G40, "&gt;=175", G3:G40, "&lt;200")</f>
@@ -18411,10 +18422,10 @@
         <v>208</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -18426,7 +18437,7 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J11">
         <f>COUNTIFS(B2:B41, "&gt;=200", B2:B41, "&lt;250")</f>
@@ -18441,7 +18452,7 @@
         <v>208</v>
       </c>
       <c r="C12" s="93" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E12">
         <v>22</v>
@@ -18453,7 +18464,7 @@
         <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J12">
         <f>COUNTIFS(B2:B40, "&gt;=250")</f>
@@ -18462,7 +18473,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B13" s="93">
         <v>200</v>
@@ -18492,7 +18503,7 @@
         <v>208</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F14" t="s">
         <v>121</v>
@@ -18515,7 +18526,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G15">
         <v>44</v>
@@ -18532,7 +18543,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -18578,7 +18589,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G18">
         <v>52</v>
@@ -18598,7 +18609,7 @@
         <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G19">
         <v>55</v>
@@ -18615,7 +18626,7 @@
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E20">
         <v>62</v>
@@ -18629,7 +18640,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B21" s="93">
         <v>16</v>
@@ -18669,7 +18680,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B23" s="93">
         <v>52</v>
@@ -18698,7 +18709,7 @@
         <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E24">
         <v>101</v>
@@ -18724,7 +18735,7 @@
         <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G25">
         <v>103</v>
@@ -18749,7 +18760,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B27" s="93">
         <v>107</v>
@@ -18761,7 +18772,7 @@
         <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G27">
         <v>107</v>
@@ -18873,7 +18884,7 @@
         <v>260</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G32">
         <v>260</v>
@@ -18910,7 +18921,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="93" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D34">
         <v>273</v>
@@ -18936,10 +18947,10 @@
         <v>6</v>
       </c>
       <c r="D35" s="93" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F35" t="s">
         <v>122</v>
@@ -18950,7 +18961,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B36" s="93">
         <v>103</v>
@@ -18960,7 +18971,7 @@
       </c>
       <c r="D36" s="93"/>
       <c r="E36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F36" t="s">
         <v>119</v>
@@ -18989,7 +19000,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B38" s="93">
         <v>260</v>
@@ -18998,10 +19009,10 @@
         <v>260</v>
       </c>
       <c r="D38" s="93" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F38" t="s">
         <v>157</v>
@@ -19012,7 +19023,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B39" s="93">
         <v>44</v>
@@ -19021,10 +19032,10 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F39" t="s">
         <v>149</v>
@@ -19044,13 +19055,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G40" t="e">
         <v>#DIV/0!</v>
@@ -19100,88 +19111,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="192" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="192" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="192" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="191" t="s">
+      <c r="E2" s="192" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="F2" s="189" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="191" t="s">
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="195" t="s">
         <v>273</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="L2" s="196"/>
+      <c r="M2" s="186" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="194" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="189" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="195"/>
-      <c r="M2" s="182" t="s">
+      <c r="R2" s="187"/>
+    </row>
+    <row r="3" spans="2:18" ht="56">
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="185" t="s">
+      <c r="G3" s="95" t="s">
         <v>277</v>
       </c>
-      <c r="R2" s="183"/>
-    </row>
-    <row r="3" spans="2:18" ht="56">
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="95" t="s">
+      <c r="H3" s="95" t="s">
         <v>278</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="I3" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="J3" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="K3" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="J3" s="96" t="s">
+      <c r="L3" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="M3" s="99" t="s">
         <v>283</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="N3" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="M3" s="99" t="s">
+      <c r="O3" s="95" t="s">
         <v>285</v>
-      </c>
-      <c r="N3" s="95" t="s">
-        <v>286</v>
-      </c>
-      <c r="O3" s="95" t="s">
-        <v>287</v>
       </c>
       <c r="P3" s="100" t="s">
         <v>55</v>
       </c>
       <c r="Q3" s="95" t="s">
+        <v>286</v>
+      </c>
+      <c r="R3" s="95" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="28">
+      <c r="B4" s="190" t="s">
         <v>288</v>
-      </c>
-      <c r="R3" s="95" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="28">
-      <c r="B4" s="186" t="s">
-        <v>290</v>
       </c>
       <c r="C4" s="101" t="s">
         <v>120</v>
@@ -19192,98 +19203,98 @@
       <c r="E4" s="102">
         <v>2018</v>
       </c>
-      <c r="F4" s="186" t="s">
+      <c r="F4" s="190" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="191">
+        <v>1</v>
+      </c>
+      <c r="H4" s="190" t="s">
+        <v>290</v>
+      </c>
+      <c r="I4" s="190" t="s">
+        <v>265</v>
+      </c>
+      <c r="J4" s="191">
+        <v>30</v>
+      </c>
+      <c r="K4" s="190" t="s">
         <v>291</v>
       </c>
-      <c r="G4" s="189">
-        <v>1</v>
-      </c>
-      <c r="H4" s="186" t="s">
+      <c r="L4" s="191" t="s">
         <v>292</v>
       </c>
-      <c r="I4" s="186" t="s">
-        <v>267</v>
-      </c>
-      <c r="J4" s="189">
-        <v>30</v>
-      </c>
-      <c r="K4" s="186" t="s">
+      <c r="M4" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="L4" s="189" t="s">
+      <c r="N4" s="191" t="s">
+        <v>293</v>
+      </c>
+      <c r="O4" s="197" t="s">
+        <v>293</v>
+      </c>
+      <c r="P4" s="101" t="s">
         <v>294</v>
       </c>
-      <c r="M4" s="102" t="s">
-        <v>295</v>
-      </c>
-      <c r="N4" s="189" t="s">
-        <v>295</v>
-      </c>
-      <c r="O4" s="196" t="s">
-        <v>295</v>
-      </c>
-      <c r="P4" s="101" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q4" s="186" t="s">
-        <v>267</v>
-      </c>
-      <c r="R4" s="189" t="s">
-        <v>267</v>
+      <c r="Q4" s="190" t="s">
+        <v>265</v>
+      </c>
+      <c r="R4" s="191" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="187"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="188" t="s">
+      <c r="D5" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="190">
+      <c r="E5" s="183">
         <v>2018</v>
       </c>
-      <c r="F5" s="188"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="N5" s="190"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q5" s="188"/>
-      <c r="R5" s="190"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="N5" s="183"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="183"/>
     </row>
     <row r="6" spans="2:18" ht="28">
-      <c r="B6" s="187"/>
+      <c r="B6" s="185"/>
       <c r="C6" s="103" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="188"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="190"/>
-      <c r="N6" s="190"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="190"/>
+        <v>295</v>
+      </c>
+      <c r="D6" s="182"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="199"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="183"/>
     </row>
     <row r="7" spans="2:18" ht="28">
-      <c r="B7" s="187"/>
+      <c r="B7" s="185"/>
       <c r="C7" s="103" t="s">
         <v>97</v>
       </c>
@@ -19293,106 +19304,106 @@
       <c r="E7" s="104">
         <v>2016</v>
       </c>
-      <c r="F7" s="188"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="190"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="190"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="183"/>
       <c r="M7" s="104" t="s">
-        <v>295</v>
-      </c>
-      <c r="N7" s="190"/>
+        <v>293</v>
+      </c>
+      <c r="N7" s="183"/>
       <c r="O7" s="104" t="s">
+        <v>296</v>
+      </c>
+      <c r="P7" s="103" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="183"/>
+    </row>
+    <row r="8" spans="2:18" ht="28">
+      <c r="B8" s="185"/>
+      <c r="C8" s="182" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="182" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="183">
+        <v>2014</v>
+      </c>
+      <c r="F8" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="183">
+        <v>2</v>
+      </c>
+      <c r="H8" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="P7" s="103" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q7" s="188"/>
-      <c r="R7" s="190"/>
-    </row>
-    <row r="8" spans="2:18" ht="28">
-      <c r="B8" s="187"/>
-      <c r="C8" s="188" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="188" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="190">
-        <v>2014</v>
-      </c>
-      <c r="F8" s="103" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" s="190">
-        <v>2</v>
-      </c>
-      <c r="H8" s="103" t="s">
-        <v>300</v>
-      </c>
       <c r="I8" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J8" s="104">
         <v>30</v>
       </c>
       <c r="K8" s="103" t="s">
+        <v>299</v>
+      </c>
+      <c r="L8" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="M8" s="183" t="s">
+        <v>300</v>
+      </c>
+      <c r="N8" s="183" t="s">
+        <v>293</v>
+      </c>
+      <c r="O8" s="183" t="s">
+        <v>293</v>
+      </c>
+      <c r="P8" s="182" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q8" s="182"/>
+      <c r="R8" s="183" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="42">
+      <c r="B9" s="185"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="L8" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="M8" s="190" t="s">
+      <c r="G9" s="183"/>
+      <c r="H9" s="103" t="s">
         <v>302</v>
       </c>
-      <c r="N8" s="190" t="s">
-        <v>295</v>
-      </c>
-      <c r="O8" s="190" t="s">
-        <v>295</v>
-      </c>
-      <c r="P8" s="188" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="190" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="42">
-      <c r="B9" s="187"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="103" t="s">
+      <c r="I9" s="103" t="s">
         <v>303</v>
-      </c>
-      <c r="G9" s="190"/>
-      <c r="H9" s="103" t="s">
-        <v>304</v>
-      </c>
-      <c r="I9" s="103" t="s">
-        <v>305</v>
       </c>
       <c r="J9" s="104">
         <v>25</v>
       </c>
       <c r="K9" s="103" t="s">
-        <v>306</v>
-      </c>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="190"/>
+        <v>304</v>
+      </c>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="182"/>
+      <c r="R9" s="183"/>
     </row>
     <row r="10" spans="2:18" ht="28">
-      <c r="B10" s="187"/>
+      <c r="B10" s="185"/>
       <c r="C10" s="103" t="s">
         <v>97</v>
       </c>
@@ -19403,115 +19414,115 @@
         <v>2014</v>
       </c>
       <c r="F10" s="103" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G10" s="104">
         <v>1</v>
       </c>
       <c r="H10" s="103" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I10" s="103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J10" s="104">
         <v>30</v>
       </c>
       <c r="K10" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L10" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M10" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N10" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O10" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P10" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="183" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="30" customHeight="1">
+      <c r="B11" s="185"/>
+      <c r="C11" s="103" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="182" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="183">
+        <v>2021</v>
+      </c>
+      <c r="F11" s="182" t="s">
         <v>308</v>
       </c>
-      <c r="Q10" s="188"/>
-      <c r="R10" s="190" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="30" customHeight="1">
-      <c r="B11" s="187"/>
-      <c r="C11" s="103" t="s">
+      <c r="G11" s="183">
+        <v>1</v>
+      </c>
+      <c r="H11" s="182" t="s">
         <v>309</v>
       </c>
-      <c r="D11" s="188" t="s">
-        <v>263</v>
-      </c>
-      <c r="E11" s="190">
-        <v>2021</v>
-      </c>
-      <c r="F11" s="188" t="s">
+      <c r="I11" s="182" t="s">
         <v>310</v>
       </c>
-      <c r="G11" s="190">
-        <v>1</v>
-      </c>
-      <c r="H11" s="188" t="s">
+      <c r="J11" s="183">
+        <v>30</v>
+      </c>
+      <c r="K11" s="182" t="s">
         <v>311</v>
       </c>
-      <c r="I11" s="188" t="s">
+      <c r="L11" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="M11" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="N11" s="183" t="s">
+        <v>293</v>
+      </c>
+      <c r="O11" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" s="182" t="s">
         <v>312</v>
       </c>
-      <c r="J11" s="190">
-        <v>30</v>
-      </c>
-      <c r="K11" s="188" t="s">
+      <c r="Q11" s="182"/>
+      <c r="R11" s="183"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="185"/>
+      <c r="C12" s="103" t="s">
         <v>313</v>
       </c>
-      <c r="L11" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="M11" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="N11" s="190" t="s">
-        <v>295</v>
-      </c>
-      <c r="O11" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="P11" s="188" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q11" s="188"/>
-      <c r="R11" s="190"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="187"/>
-      <c r="C12" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="D12" s="188"/>
-      <c r="E12" s="190"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="188"/>
-      <c r="Q12" s="188"/>
-      <c r="R12" s="190"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="182"/>
+      <c r="Q12" s="182"/>
+      <c r="R12" s="183"/>
     </row>
     <row r="13" spans="2:18" ht="28">
-      <c r="B13" s="187"/>
+      <c r="B13" s="185"/>
       <c r="C13" s="103" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D13" s="103" t="s">
         <v>102</v>
@@ -19520,113 +19531,113 @@
         <v>2020</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G13" s="104">
         <v>1</v>
       </c>
       <c r="H13" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I13" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J13" s="104">
         <v>0.67</v>
       </c>
       <c r="K13" s="103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L13" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M13" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N13" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O13" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P13" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q13" s="188"/>
-      <c r="R13" s="190"/>
+        <v>265</v>
+      </c>
+      <c r="Q13" s="182"/>
+      <c r="R13" s="183"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="187"/>
+      <c r="B14" s="185"/>
       <c r="C14" s="103" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="182" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="183">
+        <v>2020</v>
+      </c>
+      <c r="F14" s="182" t="s">
+        <v>315</v>
+      </c>
+      <c r="G14" s="183">
+        <v>1</v>
+      </c>
+      <c r="H14" s="182" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="188" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="190">
-        <v>2020</v>
-      </c>
-      <c r="F14" s="188" t="s">
+      <c r="I14" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="J14" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="K14" s="182" t="s">
+        <v>291</v>
+      </c>
+      <c r="L14" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="M14" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="N14" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="O14" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="P14" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q14" s="182"/>
+      <c r="R14" s="183"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="185"/>
+      <c r="C15" s="103" t="s">
         <v>317</v>
       </c>
-      <c r="G14" s="190">
-        <v>1</v>
-      </c>
-      <c r="H14" s="188" t="s">
-        <v>318</v>
-      </c>
-      <c r="I14" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="J14" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="K14" s="188" t="s">
-        <v>293</v>
-      </c>
-      <c r="L14" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="M14" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="N14" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="O14" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="P14" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q14" s="188"/>
-      <c r="R14" s="190"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="187"/>
-      <c r="C15" s="103" t="s">
-        <v>319</v>
-      </c>
-      <c r="D15" s="188"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="188"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="190"/>
-      <c r="O15" s="190"/>
-      <c r="P15" s="188"/>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="190"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="182"/>
+      <c r="Q15" s="182"/>
+      <c r="R15" s="183"/>
     </row>
     <row r="16" spans="2:18" ht="28">
-      <c r="B16" s="187"/>
+      <c r="B16" s="185"/>
       <c r="C16" s="103" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D16" s="103" t="s">
         <v>109</v>
@@ -19635,45 +19646,45 @@
         <v>2019</v>
       </c>
       <c r="F16" s="103" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G16" s="104">
         <v>1</v>
       </c>
       <c r="H16" s="103" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I16" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J16" s="104">
         <v>15</v>
       </c>
       <c r="K16" s="103" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L16" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M16" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N16" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O16" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P16" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q16" s="188"/>
-      <c r="R16" s="190"/>
+        <v>265</v>
+      </c>
+      <c r="Q16" s="182"/>
+      <c r="R16" s="183"/>
     </row>
     <row r="17" spans="2:18" ht="28">
-      <c r="B17" s="187"/>
+      <c r="B17" s="185"/>
       <c r="C17" s="103" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D17" s="103" t="s">
         <v>121</v>
@@ -19682,200 +19693,200 @@
         <v>2018</v>
       </c>
       <c r="F17" s="103" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G17" s="104">
         <v>1</v>
       </c>
       <c r="H17" s="103" t="s">
+        <v>321</v>
+      </c>
+      <c r="I17" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="103" t="s">
+        <v>311</v>
+      </c>
+      <c r="L17" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="M17" s="104" t="s">
+        <v>293</v>
+      </c>
+      <c r="N17" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="O17" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="P17" s="103" t="s">
         <v>323</v>
       </c>
-      <c r="I17" s="103" t="s">
+      <c r="Q17" s="182"/>
+      <c r="R17" s="183"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="185"/>
+      <c r="C18" s="103" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="182" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="183">
+        <v>2018</v>
+      </c>
+      <c r="F18" s="182" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" s="183">
+        <v>1</v>
+      </c>
+      <c r="H18" s="182" t="s">
         <v>324</v>
       </c>
-      <c r="J17" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="K17" s="103" t="s">
+      <c r="I18" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="J18" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18" s="182" t="s">
+        <v>325</v>
+      </c>
+      <c r="L18" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="M18" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="N18" s="183" t="s">
+        <v>293</v>
+      </c>
+      <c r="O18" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="P18" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q18" s="182"/>
+      <c r="R18" s="183"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="185"/>
+      <c r="C19" s="103" t="s">
         <v>313</v>
       </c>
-      <c r="L17" s="104" t="s">
-        <v>294</v>
-      </c>
-      <c r="M17" s="104" t="s">
-        <v>295</v>
-      </c>
-      <c r="N17" s="104" t="s">
-        <v>294</v>
-      </c>
-      <c r="O17" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="P17" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q17" s="188"/>
-      <c r="R17" s="190"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="187"/>
-      <c r="C18" s="103" t="s">
-        <v>309</v>
-      </c>
-      <c r="D18" s="188" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="190">
+      <c r="D19" s="182"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="182"/>
+      <c r="Q19" s="182"/>
+      <c r="R19" s="183"/>
+    </row>
+    <row r="20" spans="2:18" ht="64" customHeight="1">
+      <c r="B20" s="185"/>
+      <c r="C20" s="103" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="183">
         <v>2018</v>
       </c>
-      <c r="F18" s="188" t="s">
-        <v>320</v>
-      </c>
-      <c r="G18" s="190">
+      <c r="F20" s="182" t="s">
+        <v>327</v>
+      </c>
+      <c r="G20" s="183">
         <v>1</v>
       </c>
-      <c r="H18" s="188" t="s">
-        <v>326</v>
-      </c>
-      <c r="I18" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="J18" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" s="188" t="s">
-        <v>327</v>
-      </c>
-      <c r="L18" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="M18" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="N18" s="190" t="s">
-        <v>295</v>
-      </c>
-      <c r="O18" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="P18" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q18" s="188"/>
-      <c r="R18" s="190"/>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="187"/>
-      <c r="C19" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="D19" s="188"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="190"/>
-      <c r="K19" s="188"/>
-      <c r="L19" s="190"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="190"/>
-      <c r="O19" s="190"/>
-      <c r="P19" s="188"/>
-      <c r="Q19" s="188"/>
-      <c r="R19" s="190"/>
-    </row>
-    <row r="20" spans="2:18" ht="64" customHeight="1">
-      <c r="B20" s="187"/>
-      <c r="C20" s="103" t="s">
+      <c r="H20" s="182" t="s">
         <v>328</v>
       </c>
-      <c r="D20" s="188" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="190">
-        <v>2018</v>
-      </c>
-      <c r="F20" s="188" t="s">
-        <v>329</v>
-      </c>
-      <c r="G20" s="190">
-        <v>1</v>
-      </c>
-      <c r="H20" s="188" t="s">
-        <v>330</v>
-      </c>
-      <c r="I20" s="188" t="s">
-        <v>298</v>
-      </c>
-      <c r="J20" s="190">
+      <c r="I20" s="182" t="s">
+        <v>296</v>
+      </c>
+      <c r="J20" s="183">
         <v>30</v>
       </c>
-      <c r="K20" s="188" t="s">
-        <v>313</v>
-      </c>
-      <c r="L20" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="M20" s="190" t="s">
-        <v>295</v>
-      </c>
-      <c r="N20" s="190" t="s">
-        <v>295</v>
-      </c>
-      <c r="O20" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="P20" s="188" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q20" s="188"/>
-      <c r="R20" s="190"/>
+      <c r="K20" s="182" t="s">
+        <v>311</v>
+      </c>
+      <c r="L20" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="M20" s="183" t="s">
+        <v>293</v>
+      </c>
+      <c r="N20" s="183" t="s">
+        <v>293</v>
+      </c>
+      <c r="O20" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="P20" s="182" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q20" s="182"/>
+      <c r="R20" s="183"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="187"/>
+      <c r="B21" s="185"/>
       <c r="C21" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="188"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="188"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="190"/>
-      <c r="O21" s="190"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="188"/>
-      <c r="R21" s="190"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="182"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="183"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="187"/>
+      <c r="B22" s="185"/>
       <c r="C22" s="103" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" s="188"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="190"/>
-      <c r="O22" s="190"/>
-      <c r="P22" s="188"/>
-      <c r="Q22" s="188"/>
-      <c r="R22" s="190"/>
+        <v>307</v>
+      </c>
+      <c r="D22" s="182"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="183"/>
     </row>
     <row r="23" spans="2:18" ht="56">
-      <c r="B23" s="187"/>
+      <c r="B23" s="185"/>
       <c r="C23" s="103" t="s">
         <v>97</v>
       </c>
@@ -19886,45 +19897,45 @@
         <v>2017</v>
       </c>
       <c r="F23" s="103" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G23" s="104">
         <v>1</v>
       </c>
       <c r="H23" s="103" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I23" s="103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J23" s="104">
         <v>30</v>
       </c>
       <c r="K23" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L23" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M23" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N23" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O23" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P23" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q23" s="188"/>
-      <c r="R23" s="190"/>
+        <v>323</v>
+      </c>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="183"/>
     </row>
     <row r="24" spans="2:18" ht="28">
-      <c r="B24" s="187"/>
+      <c r="B24" s="185"/>
       <c r="C24" s="103" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D24" s="103" t="s">
         <v>143</v>
@@ -19933,45 +19944,45 @@
         <v>2020</v>
       </c>
       <c r="F24" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G24" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J24" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K24" s="103" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L24" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M24" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N24" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O24" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P24" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q24" s="188"/>
-      <c r="R24" s="190"/>
+        <v>323</v>
+      </c>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="183"/>
     </row>
     <row r="25" spans="2:18" ht="28">
-      <c r="B25" s="187"/>
+      <c r="B25" s="185"/>
       <c r="C25" s="103" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D25" s="103" t="s">
         <v>144</v>
@@ -19980,45 +19991,45 @@
         <v>2016</v>
       </c>
       <c r="F25" s="103" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G25" s="104">
         <v>1</v>
       </c>
       <c r="H25" s="103" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I25" s="103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J25" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K25" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L25" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M25" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N25" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O25" s="104" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P25" s="103" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q25" s="188"/>
-      <c r="R25" s="190"/>
+        <v>296</v>
+      </c>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="183"/>
     </row>
     <row r="26" spans="2:18" ht="28">
-      <c r="B26" s="187"/>
+      <c r="B26" s="185"/>
       <c r="C26" s="103" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D26" s="103" t="s">
         <v>145</v>
@@ -20027,125 +20038,125 @@
         <v>2016</v>
       </c>
       <c r="F26" s="103" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G26" s="104">
         <v>1</v>
       </c>
       <c r="H26" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="I26" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="J26" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="K26" s="103" t="s">
+        <v>335</v>
+      </c>
+      <c r="L26" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="M26" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="N26" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="O26" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="P26" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="I26" s="103" t="s">
-        <v>298</v>
-      </c>
-      <c r="J26" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="K26" s="103" t="s">
+      <c r="Q26" s="182"/>
+      <c r="R26" s="183"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="185"/>
+      <c r="C27" s="182" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" s="182" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="183">
+        <v>2015</v>
+      </c>
+      <c r="F27" s="182" t="s">
         <v>337</v>
       </c>
-      <c r="L26" s="104" t="s">
-        <v>294</v>
-      </c>
-      <c r="M26" s="104" t="s">
-        <v>302</v>
-      </c>
-      <c r="N26" s="104" t="s">
-        <v>294</v>
-      </c>
-      <c r="O26" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="P26" s="103" t="s">
+      <c r="G27" s="183">
+        <v>1</v>
+      </c>
+      <c r="H27" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="Q26" s="188"/>
-      <c r="R26" s="190"/>
-    </row>
-    <row r="27" spans="2:18">
-      <c r="B27" s="187"/>
-      <c r="C27" s="188" t="s">
-        <v>315</v>
-      </c>
-      <c r="D27" s="188" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="190">
-        <v>2015</v>
-      </c>
-      <c r="F27" s="188" t="s">
+      <c r="I27" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="K27" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="L27" s="104" t="s">
         <v>339</v>
       </c>
-      <c r="G27" s="190">
-        <v>1</v>
-      </c>
-      <c r="H27" s="103" t="s">
+      <c r="M27" s="104" t="s">
+        <v>293</v>
+      </c>
+      <c r="N27" s="104" t="s">
+        <v>293</v>
+      </c>
+      <c r="O27" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="P27" s="103" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="183"/>
+    </row>
+    <row r="28" spans="2:18" ht="45" customHeight="1">
+      <c r="B28" s="185"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="I27" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="J27" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="K27" s="103" t="s">
-        <v>293</v>
-      </c>
-      <c r="L27" s="104" t="s">
+      <c r="I28" s="182"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="M27" s="104" t="s">
-        <v>295</v>
-      </c>
-      <c r="N27" s="104" t="s">
-        <v>295</v>
-      </c>
-      <c r="O27" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="P27" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q27" s="188"/>
-      <c r="R27" s="190"/>
-    </row>
-    <row r="28" spans="2:18" ht="45" customHeight="1">
-      <c r="B28" s="187"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="103" t="s">
+      <c r="L28" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="M28" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="N28" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="O28" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="P28" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="I28" s="188"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="103" t="s">
-        <v>343</v>
-      </c>
-      <c r="L28" s="104" t="s">
-        <v>302</v>
-      </c>
-      <c r="M28" s="104" t="s">
-        <v>302</v>
-      </c>
-      <c r="N28" s="104" t="s">
-        <v>294</v>
-      </c>
-      <c r="O28" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="P28" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q28" s="188"/>
-      <c r="R28" s="190"/>
+      <c r="Q28" s="182"/>
+      <c r="R28" s="183"/>
     </row>
     <row r="29" spans="2:18" ht="70">
-      <c r="B29" s="187"/>
+      <c r="B29" s="185"/>
       <c r="C29" s="103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D29" s="103" t="s">
         <v>149</v>
@@ -20154,45 +20165,45 @@
         <v>2015</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G29" s="104">
         <v>1</v>
       </c>
       <c r="H29" s="103" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I29" s="103" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J29" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K29" s="103" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L29" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M29" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N29" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O29" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P29" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q29" s="188"/>
-      <c r="R29" s="190"/>
+        <v>265</v>
+      </c>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="183"/>
     </row>
     <row r="30" spans="2:18" ht="56">
-      <c r="B30" s="187"/>
+      <c r="B30" s="185"/>
       <c r="C30" s="103" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D30" s="103" t="s">
         <v>152</v>
@@ -20201,45 +20212,45 @@
         <v>2015</v>
       </c>
       <c r="F30" s="103" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G30" s="104">
         <v>1</v>
       </c>
       <c r="H30" s="103" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I30" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J30" s="104">
         <v>30</v>
       </c>
       <c r="K30" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L30" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M30" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N30" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O30" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P30" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q30" s="188"/>
-      <c r="R30" s="190"/>
+        <v>265</v>
+      </c>
+      <c r="Q30" s="182"/>
+      <c r="R30" s="183"/>
     </row>
     <row r="31" spans="2:18" ht="28">
-      <c r="B31" s="187"/>
+      <c r="B31" s="185"/>
       <c r="C31" s="103" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D31" s="103" t="s">
         <v>161</v>
@@ -20248,45 +20259,45 @@
         <v>2018</v>
       </c>
       <c r="F31" s="103" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G31" s="104">
         <v>1</v>
       </c>
       <c r="H31" s="103" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I31" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J31" s="104">
         <v>2</v>
       </c>
       <c r="K31" s="103" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L31" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M31" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N31" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O31" s="104" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P31" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q31" s="188"/>
-      <c r="R31" s="190"/>
+        <v>349</v>
+      </c>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="183"/>
     </row>
     <row r="32" spans="2:18" ht="28">
-      <c r="B32" s="187"/>
+      <c r="B32" s="185"/>
       <c r="C32" s="103" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D32" s="103" t="s">
         <v>164</v>
@@ -20295,166 +20306,166 @@
         <v>2020</v>
       </c>
       <c r="F32" s="103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G32" s="104">
         <v>1</v>
       </c>
       <c r="H32" s="103" t="s">
+        <v>351</v>
+      </c>
+      <c r="I32" s="103" t="s">
+        <v>352</v>
+      </c>
+      <c r="J32" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" s="103" t="s">
+        <v>311</v>
+      </c>
+      <c r="L32" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="M32" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="N32" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="O32" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="P32" s="103" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="183"/>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="185"/>
+      <c r="C33" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="I32" s="103" t="s">
+      <c r="D33" s="182" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="183">
+        <v>2017</v>
+      </c>
+      <c r="F33" s="182" t="s">
+        <v>289</v>
+      </c>
+      <c r="G33" s="183">
+        <v>2</v>
+      </c>
+      <c r="H33" s="182" t="s">
         <v>354</v>
       </c>
-      <c r="J32" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="K32" s="103" t="s">
+      <c r="I33" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="J33" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="K33" s="182" t="s">
+        <v>304</v>
+      </c>
+      <c r="L33" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="N33" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="P33" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="183" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" s="185"/>
+      <c r="C34" s="103" t="s">
         <v>313</v>
       </c>
-      <c r="L32" s="104" t="s">
-        <v>294</v>
-      </c>
-      <c r="M32" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="N32" s="104" t="s">
-        <v>294</v>
-      </c>
-      <c r="O32" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="P32" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q32" s="188"/>
-      <c r="R32" s="190"/>
-    </row>
-    <row r="33" spans="2:18">
-      <c r="B33" s="187"/>
-      <c r="C33" s="103" t="s">
-        <v>355</v>
-      </c>
-      <c r="D33" s="188" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="190">
-        <v>2017</v>
-      </c>
-      <c r="F33" s="188" t="s">
-        <v>291</v>
-      </c>
-      <c r="G33" s="190">
-        <v>2</v>
-      </c>
-      <c r="H33" s="188" t="s">
-        <v>356</v>
-      </c>
-      <c r="I33" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="J33" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="K33" s="188" t="s">
-        <v>306</v>
-      </c>
-      <c r="L33" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="M33" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="N33" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="O33" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="P33" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q33" s="188"/>
-      <c r="R33" s="190" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18">
-      <c r="B34" s="187"/>
-      <c r="C34" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="190"/>
-      <c r="K34" s="188"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="190"/>
-      <c r="O34" s="190"/>
-      <c r="P34" s="188"/>
-      <c r="Q34" s="188"/>
-      <c r="R34" s="190"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="182"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="182"/>
+      <c r="L34" s="183"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="183"/>
+      <c r="O34" s="183"/>
+      <c r="P34" s="182"/>
+      <c r="Q34" s="182"/>
+      <c r="R34" s="183"/>
     </row>
     <row r="35" spans="2:18" ht="42">
-      <c r="B35" s="187"/>
+      <c r="B35" s="185"/>
       <c r="C35" s="103" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="103" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E35" s="104">
         <v>2020</v>
       </c>
       <c r="F35" s="103" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G35" s="104">
         <v>1</v>
       </c>
       <c r="H35" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="I35" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="J35" s="104" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="I35" s="103" t="s">
+      <c r="L35" s="104" t="s">
+        <v>339</v>
+      </c>
+      <c r="M35" s="104" t="s">
+        <v>339</v>
+      </c>
+      <c r="N35" s="104" t="s">
+        <v>339</v>
+      </c>
+      <c r="O35" s="104" t="s">
+        <v>296</v>
+      </c>
+      <c r="P35" s="103" t="s">
         <v>360</v>
       </c>
-      <c r="J35" s="104" t="s">
-        <v>298</v>
-      </c>
-      <c r="K35" s="103" t="s">
+      <c r="Q35" s="182"/>
+      <c r="R35" s="104" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="182" t="s">
         <v>361</v>
       </c>
-      <c r="L35" s="104" t="s">
-        <v>341</v>
-      </c>
-      <c r="M35" s="104" t="s">
-        <v>341</v>
-      </c>
-      <c r="N35" s="104" t="s">
-        <v>341</v>
-      </c>
-      <c r="O35" s="104" t="s">
-        <v>298</v>
-      </c>
-      <c r="P35" s="103" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q35" s="188"/>
-      <c r="R35" s="104" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18">
-      <c r="B36" s="188" t="s">
-        <v>363</v>
-      </c>
       <c r="C36" s="103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D36" s="103" t="s">
         <v>118</v>
@@ -20462,48 +20473,48 @@
       <c r="E36" s="104">
         <v>2019</v>
       </c>
-      <c r="F36" s="188" t="s">
+      <c r="F36" s="182" t="s">
+        <v>362</v>
+      </c>
+      <c r="G36" s="183">
+        <v>1</v>
+      </c>
+      <c r="H36" s="182" t="s">
+        <v>363</v>
+      </c>
+      <c r="I36" s="182" t="s">
         <v>364</v>
       </c>
-      <c r="G36" s="190">
-        <v>1</v>
-      </c>
-      <c r="H36" s="188" t="s">
-        <v>365</v>
-      </c>
-      <c r="I36" s="188" t="s">
-        <v>366</v>
-      </c>
-      <c r="J36" s="190" t="s">
-        <v>267</v>
+      <c r="J36" s="183" t="s">
+        <v>265</v>
       </c>
       <c r="K36" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="L36" s="190" t="s">
-        <v>294</v>
+        <v>265</v>
+      </c>
+      <c r="L36" s="183" t="s">
+        <v>292</v>
       </c>
       <c r="M36" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="N36" s="190" t="s">
-        <v>294</v>
+        <v>265</v>
+      </c>
+      <c r="N36" s="183" t="s">
+        <v>292</v>
       </c>
       <c r="O36" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P36" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q36" s="187"/>
-      <c r="R36" s="190" t="s">
-        <v>267</v>
+        <v>342</v>
+      </c>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="183" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="187"/>
+      <c r="B37" s="185"/>
       <c r="C37" s="103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D37" s="103" t="s">
         <v>160</v>
@@ -20511,34 +20522,34 @@
       <c r="E37" s="104">
         <v>2018</v>
       </c>
-      <c r="F37" s="188"/>
-      <c r="G37" s="190"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="190"/>
+      <c r="F37" s="182"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="182"/>
+      <c r="I37" s="182"/>
+      <c r="J37" s="183"/>
       <c r="K37" s="103" t="s">
-        <v>367</v>
-      </c>
-      <c r="L37" s="190"/>
+        <v>365</v>
+      </c>
+      <c r="L37" s="183"/>
       <c r="M37" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="N37" s="190"/>
+        <v>265</v>
+      </c>
+      <c r="N37" s="183"/>
       <c r="O37" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P37" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q37" s="187"/>
-      <c r="R37" s="190"/>
+        <v>342</v>
+      </c>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="183"/>
     </row>
     <row r="38" spans="2:18" ht="70">
       <c r="B38" s="103" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D38" s="103" t="s">
         <v>126</v>
@@ -20547,524 +20558,524 @@
         <v>2018</v>
       </c>
       <c r="F38" s="103" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G38" s="104">
         <v>1</v>
       </c>
       <c r="H38" s="103" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I38" s="103" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J38" s="104">
         <v>30</v>
       </c>
       <c r="K38" s="103" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L38" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M38" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N38" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O38" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P38" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q38" s="103" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R38" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="2:18" ht="42">
       <c r="B39" s="103" t="s">
+        <v>369</v>
+      </c>
+      <c r="C39" s="103" t="s">
+        <v>307</v>
+      </c>
+      <c r="D39" s="182" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" s="183">
+        <v>2020</v>
+      </c>
+      <c r="F39" s="182" t="s">
+        <v>318</v>
+      </c>
+      <c r="G39" s="183">
+        <v>1</v>
+      </c>
+      <c r="H39" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="I39" s="182" t="s">
         <v>371</v>
       </c>
-      <c r="C39" s="103" t="s">
-        <v>309</v>
-      </c>
-      <c r="D39" s="188" t="s">
-        <v>246</v>
-      </c>
-      <c r="E39" s="190">
-        <v>2020</v>
-      </c>
-      <c r="F39" s="188" t="s">
-        <v>320</v>
-      </c>
-      <c r="G39" s="190">
-        <v>1</v>
-      </c>
-      <c r="H39" s="103" t="s">
+      <c r="J39" s="183">
+        <v>10</v>
+      </c>
+      <c r="K39" s="182" t="s">
         <v>372</v>
       </c>
-      <c r="I39" s="188" t="s">
-        <v>373</v>
-      </c>
-      <c r="J39" s="190">
-        <v>10</v>
-      </c>
-      <c r="K39" s="188" t="s">
-        <v>374</v>
-      </c>
-      <c r="L39" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="M39" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="N39" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="O39" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="P39" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q39" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="R39" s="190" t="s">
-        <v>267</v>
+      <c r="L39" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="M39" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="N39" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="O39" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="P39" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q39" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="R39" s="183" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="2:18" ht="42">
       <c r="B40" s="103" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C40" s="103" t="s">
-        <v>328</v>
-      </c>
-      <c r="D40" s="188"/>
-      <c r="E40" s="190"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="190"/>
+        <v>326</v>
+      </c>
+      <c r="D40" s="182"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="183"/>
       <c r="H40" s="103" t="s">
-        <v>372</v>
-      </c>
-      <c r="I40" s="188"/>
-      <c r="J40" s="190"/>
-      <c r="K40" s="188"/>
-      <c r="L40" s="190"/>
-      <c r="M40" s="190"/>
-      <c r="N40" s="190"/>
-      <c r="O40" s="190"/>
-      <c r="P40" s="188"/>
-      <c r="Q40" s="188"/>
-      <c r="R40" s="190"/>
+        <v>370</v>
+      </c>
+      <c r="I40" s="182"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="182"/>
+      <c r="L40" s="183"/>
+      <c r="M40" s="183"/>
+      <c r="N40" s="183"/>
+      <c r="O40" s="183"/>
+      <c r="P40" s="182"/>
+      <c r="Q40" s="182"/>
+      <c r="R40" s="183"/>
     </row>
     <row r="41" spans="2:18" ht="70">
       <c r="B41" s="103" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C41" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="D41" s="188"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="190"/>
+        <v>313</v>
+      </c>
+      <c r="D41" s="182"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="183"/>
       <c r="H41" s="103" t="s">
-        <v>376</v>
-      </c>
-      <c r="I41" s="188"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="190"/>
-      <c r="N41" s="190"/>
-      <c r="O41" s="190"/>
-      <c r="P41" s="188"/>
-      <c r="Q41" s="188"/>
-      <c r="R41" s="190"/>
+        <v>374</v>
+      </c>
+      <c r="I41" s="182"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="182"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="183"/>
+      <c r="P41" s="182"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="183"/>
     </row>
     <row r="42" spans="2:18" ht="98">
       <c r="B42" s="103" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C42" s="103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D42" s="103" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E42" s="104">
         <v>2020</v>
       </c>
       <c r="F42" s="103" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G42" s="104">
         <v>3</v>
       </c>
       <c r="H42" s="103" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I42" s="103" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J42" s="104">
         <v>30</v>
       </c>
       <c r="K42" s="103" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L42" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M42" s="104" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N42" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O42" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P42" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q42" s="103" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R42" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="2:18" ht="42">
       <c r="B43" s="103" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C43" s="103" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D43" s="103" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E43" s="104">
         <v>2019</v>
       </c>
       <c r="F43" s="103" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G43" s="104">
         <v>3</v>
       </c>
       <c r="H43" s="103" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I43" s="103" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J43" s="104">
         <v>2</v>
       </c>
       <c r="K43" s="103" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L43" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M43" s="104" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N43" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O43" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P43" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q43" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R43" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="2:18" ht="56">
-      <c r="B44" s="188" t="s">
-        <v>377</v>
+      <c r="B44" s="182" t="s">
+        <v>375</v>
       </c>
       <c r="C44" s="103" t="s">
-        <v>385</v>
-      </c>
-      <c r="D44" s="188" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44" s="182" t="s">
         <v>157</v>
       </c>
-      <c r="E44" s="190">
+      <c r="E44" s="183">
         <v>2017</v>
       </c>
       <c r="F44" s="103" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G44" s="104">
         <v>3</v>
       </c>
       <c r="H44" s="103" t="s">
+        <v>384</v>
+      </c>
+      <c r="I44" s="182" t="s">
+        <v>385</v>
+      </c>
+      <c r="J44" s="183">
+        <v>60</v>
+      </c>
+      <c r="K44" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="I44" s="188" t="s">
+      <c r="L44" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="M44" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="N44" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="O44" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="P44" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q44" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="R44" s="104" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" ht="28">
+      <c r="B45" s="182"/>
+      <c r="C45" s="103" t="s">
         <v>387</v>
       </c>
-      <c r="J44" s="190">
-        <v>60</v>
-      </c>
-      <c r="K44" s="103" t="s">
-        <v>388</v>
-      </c>
-      <c r="L44" s="104" t="s">
-        <v>294</v>
-      </c>
-      <c r="M44" s="104" t="s">
-        <v>267</v>
-      </c>
-      <c r="N44" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="O44" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="P44" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q44" s="103" t="s">
-        <v>295</v>
-      </c>
-      <c r="R44" s="104" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" ht="28">
-      <c r="B45" s="188"/>
-      <c r="C45" s="103" t="s">
-        <v>389</v>
-      </c>
-      <c r="D45" s="188"/>
-      <c r="E45" s="190"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="183"/>
       <c r="F45" s="103" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G45" s="104">
         <v>1</v>
       </c>
       <c r="H45" s="103" t="s">
-        <v>342</v>
-      </c>
-      <c r="I45" s="188"/>
-      <c r="J45" s="190"/>
+        <v>340</v>
+      </c>
+      <c r="I45" s="182"/>
+      <c r="J45" s="183"/>
       <c r="K45" s="103" t="s">
+        <v>388</v>
+      </c>
+      <c r="L45" s="104" t="s">
+        <v>293</v>
+      </c>
+      <c r="M45" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="N45" s="183"/>
+      <c r="O45" s="183"/>
+      <c r="P45" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q45" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="R45" s="104" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18">
+      <c r="B46" s="182" t="s">
+        <v>375</v>
+      </c>
+      <c r="C46" s="103" t="s">
+        <v>313</v>
+      </c>
+      <c r="D46" s="182" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="183">
+        <v>2019</v>
+      </c>
+      <c r="F46" s="182" t="s">
+        <v>389</v>
+      </c>
+      <c r="G46" s="183">
+        <v>5</v>
+      </c>
+      <c r="H46" s="182" t="s">
         <v>390</v>
       </c>
-      <c r="L45" s="104" t="s">
-        <v>295</v>
-      </c>
-      <c r="M45" s="104" t="s">
-        <v>294</v>
-      </c>
-      <c r="N45" s="190"/>
-      <c r="O45" s="190"/>
-      <c r="P45" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q45" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="R45" s="104" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18">
-      <c r="B46" s="188" t="s">
-        <v>377</v>
-      </c>
-      <c r="C46" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="D46" s="188" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="190">
+      <c r="I46" s="182" t="s">
+        <v>368</v>
+      </c>
+      <c r="J46" s="183">
+        <v>80</v>
+      </c>
+      <c r="K46" s="182" t="s">
+        <v>391</v>
+      </c>
+      <c r="L46" s="183" t="s">
+        <v>293</v>
+      </c>
+      <c r="M46" s="183" t="s">
+        <v>300</v>
+      </c>
+      <c r="N46" s="183" t="s">
+        <v>300</v>
+      </c>
+      <c r="O46" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="P46" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q46" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="R46" s="183" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" ht="92" customHeight="1">
+      <c r="B47" s="182"/>
+      <c r="C47" s="103" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" s="182"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="183"/>
+      <c r="H47" s="182"/>
+      <c r="I47" s="182"/>
+      <c r="J47" s="183"/>
+      <c r="K47" s="182"/>
+      <c r="L47" s="183"/>
+      <c r="M47" s="183"/>
+      <c r="N47" s="183"/>
+      <c r="O47" s="183"/>
+      <c r="P47" s="182"/>
+      <c r="Q47" s="182"/>
+      <c r="R47" s="183"/>
+    </row>
+    <row r="48" spans="2:18">
+      <c r="B48" s="182" t="s">
+        <v>375</v>
+      </c>
+      <c r="C48" s="103" t="s">
+        <v>313</v>
+      </c>
+      <c r="D48" s="182" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="183">
         <v>2019</v>
       </c>
-      <c r="F46" s="188" t="s">
-        <v>391</v>
-      </c>
-      <c r="G46" s="190">
-        <v>5</v>
-      </c>
-      <c r="H46" s="188" t="s">
-        <v>392</v>
-      </c>
-      <c r="I46" s="188" t="s">
-        <v>370</v>
-      </c>
-      <c r="J46" s="190">
-        <v>80</v>
-      </c>
-      <c r="K46" s="188" t="s">
-        <v>393</v>
-      </c>
-      <c r="L46" s="190" t="s">
-        <v>295</v>
-      </c>
-      <c r="M46" s="190" t="s">
-        <v>302</v>
-      </c>
-      <c r="N46" s="190" t="s">
-        <v>302</v>
-      </c>
-      <c r="O46" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="P46" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q46" s="188" t="s">
-        <v>295</v>
-      </c>
-      <c r="R46" s="190" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" ht="92" customHeight="1">
-      <c r="B47" s="188"/>
-      <c r="C47" s="103" t="s">
-        <v>309</v>
-      </c>
-      <c r="D47" s="188"/>
-      <c r="E47" s="190"/>
-      <c r="F47" s="188"/>
-      <c r="G47" s="190"/>
-      <c r="H47" s="188"/>
-      <c r="I47" s="188"/>
-      <c r="J47" s="190"/>
-      <c r="K47" s="188"/>
-      <c r="L47" s="190"/>
-      <c r="M47" s="190"/>
-      <c r="N47" s="190"/>
-      <c r="O47" s="190"/>
-      <c r="P47" s="188"/>
-      <c r="Q47" s="188"/>
-      <c r="R47" s="190"/>
-    </row>
-    <row r="48" spans="2:18">
-      <c r="B48" s="188" t="s">
-        <v>377</v>
-      </c>
-      <c r="C48" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="D48" s="188" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="190">
-        <v>2019</v>
-      </c>
-      <c r="F48" s="188"/>
-      <c r="G48" s="190"/>
-      <c r="H48" s="188"/>
-      <c r="I48" s="188"/>
-      <c r="J48" s="190"/>
-      <c r="K48" s="188"/>
-      <c r="L48" s="190"/>
-      <c r="M48" s="190"/>
-      <c r="N48" s="190"/>
-      <c r="O48" s="190"/>
-      <c r="P48" s="188"/>
-      <c r="Q48" s="188"/>
-      <c r="R48" s="190"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="183"/>
+      <c r="H48" s="182"/>
+      <c r="I48" s="182"/>
+      <c r="J48" s="183"/>
+      <c r="K48" s="182"/>
+      <c r="L48" s="183"/>
+      <c r="M48" s="183"/>
+      <c r="N48" s="183"/>
+      <c r="O48" s="183"/>
+      <c r="P48" s="182"/>
+      <c r="Q48" s="182"/>
+      <c r="R48" s="183"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="188"/>
+      <c r="B49" s="182"/>
       <c r="C49" s="103" t="s">
-        <v>389</v>
-      </c>
-      <c r="D49" s="188"/>
-      <c r="E49" s="190"/>
-      <c r="F49" s="188"/>
-      <c r="G49" s="190"/>
-      <c r="H49" s="188"/>
-      <c r="I49" s="188"/>
-      <c r="J49" s="190"/>
-      <c r="K49" s="188"/>
-      <c r="L49" s="190"/>
-      <c r="M49" s="190"/>
-      <c r="N49" s="190"/>
-      <c r="O49" s="190"/>
-      <c r="P49" s="188"/>
-      <c r="Q49" s="188"/>
-      <c r="R49" s="190"/>
+        <v>387</v>
+      </c>
+      <c r="D49" s="182"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="182"/>
+      <c r="G49" s="183"/>
+      <c r="H49" s="182"/>
+      <c r="I49" s="182"/>
+      <c r="J49" s="183"/>
+      <c r="K49" s="182"/>
+      <c r="L49" s="183"/>
+      <c r="M49" s="183"/>
+      <c r="N49" s="183"/>
+      <c r="O49" s="183"/>
+      <c r="P49" s="182"/>
+      <c r="Q49" s="182"/>
+      <c r="R49" s="183"/>
     </row>
     <row r="50" spans="2:18" ht="56">
       <c r="B50" s="103" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C50" s="103" t="s">
         <v>96</v>
       </c>
       <c r="D50" s="103" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E50" s="104">
         <v>2018</v>
       </c>
       <c r="F50" s="103" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G50" s="104">
         <v>6</v>
       </c>
       <c r="H50" s="103" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I50" s="103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J50" s="104">
         <v>100</v>
       </c>
       <c r="K50" s="103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L50" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M50" s="104" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N50" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O50" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P50" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q50" s="103" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R50" s="104" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="188" t="s">
-        <v>377</v>
+      <c r="B51" s="182" t="s">
+        <v>375</v>
       </c>
       <c r="C51" s="103" t="s">
         <v>49</v>
@@ -21075,50 +21086,50 @@
       <c r="E51" s="104">
         <v>2021</v>
       </c>
-      <c r="F51" s="188" t="s">
-        <v>291</v>
-      </c>
-      <c r="G51" s="190">
+      <c r="F51" s="182" t="s">
+        <v>289</v>
+      </c>
+      <c r="G51" s="183">
         <v>6</v>
       </c>
-      <c r="H51" s="188" t="s">
-        <v>397</v>
-      </c>
-      <c r="I51" s="188" t="s">
-        <v>398</v>
-      </c>
-      <c r="J51" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="K51" s="188" t="s">
+      <c r="H51" s="182" t="s">
+        <v>395</v>
+      </c>
+      <c r="I51" s="182" t="s">
+        <v>396</v>
+      </c>
+      <c r="J51" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="K51" s="182" t="s">
+        <v>311</v>
+      </c>
+      <c r="L51" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="M51" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="N51" s="183" t="s">
+        <v>293</v>
+      </c>
+      <c r="O51" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="P51" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q51" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="R51" s="183" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18">
+      <c r="B52" s="182"/>
+      <c r="C52" s="103" t="s">
         <v>313</v>
-      </c>
-      <c r="L51" s="190" t="s">
-        <v>294</v>
-      </c>
-      <c r="M51" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="N51" s="190" t="s">
-        <v>295</v>
-      </c>
-      <c r="O51" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="P51" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q51" s="188" t="s">
-        <v>295</v>
-      </c>
-      <c r="R51" s="190" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18">
-      <c r="B52" s="188"/>
-      <c r="C52" s="103" t="s">
-        <v>315</v>
       </c>
       <c r="D52" s="103" t="s">
         <v>135</v>
@@ -21126,22 +21137,22 @@
       <c r="E52" s="104">
         <v>2017</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="190"/>
-      <c r="H52" s="188"/>
-      <c r="I52" s="188"/>
-      <c r="J52" s="190"/>
-      <c r="K52" s="188"/>
-      <c r="L52" s="190"/>
-      <c r="M52" s="190"/>
-      <c r="N52" s="190"/>
-      <c r="O52" s="190"/>
-      <c r="P52" s="188"/>
-      <c r="Q52" s="188"/>
-      <c r="R52" s="190"/>
+      <c r="F52" s="182"/>
+      <c r="G52" s="183"/>
+      <c r="H52" s="182"/>
+      <c r="I52" s="182"/>
+      <c r="J52" s="183"/>
+      <c r="K52" s="182"/>
+      <c r="L52" s="183"/>
+      <c r="M52" s="183"/>
+      <c r="N52" s="183"/>
+      <c r="O52" s="183"/>
+      <c r="P52" s="182"/>
+      <c r="Q52" s="182"/>
+      <c r="R52" s="183"/>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="188"/>
+      <c r="B53" s="182"/>
       <c r="C53" s="103" t="s">
         <v>49</v>
       </c>
@@ -21151,51 +21162,51 @@
       <c r="E53" s="104">
         <v>2016</v>
       </c>
-      <c r="F53" s="188"/>
-      <c r="G53" s="190"/>
-      <c r="H53" s="188"/>
-      <c r="I53" s="188"/>
-      <c r="J53" s="190"/>
-      <c r="K53" s="188"/>
-      <c r="L53" s="190"/>
-      <c r="M53" s="190"/>
-      <c r="N53" s="190"/>
-      <c r="O53" s="190"/>
-      <c r="P53" s="188"/>
-      <c r="Q53" s="188"/>
-      <c r="R53" s="190"/>
+      <c r="F53" s="182"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="182"/>
+      <c r="I53" s="182"/>
+      <c r="J53" s="183"/>
+      <c r="K53" s="182"/>
+      <c r="L53" s="183"/>
+      <c r="M53" s="183"/>
+      <c r="N53" s="183"/>
+      <c r="O53" s="183"/>
+      <c r="P53" s="182"/>
+      <c r="Q53" s="182"/>
+      <c r="R53" s="183"/>
     </row>
     <row r="54" spans="2:18">
-      <c r="B54" s="188"/>
+      <c r="B54" s="182"/>
       <c r="C54" s="103" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D54" s="103" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E54" s="104">
         <v>2016</v>
       </c>
-      <c r="F54" s="188"/>
-      <c r="G54" s="190"/>
-      <c r="H54" s="188"/>
-      <c r="I54" s="188"/>
-      <c r="J54" s="190"/>
-      <c r="K54" s="188"/>
-      <c r="L54" s="190"/>
-      <c r="M54" s="190"/>
-      <c r="N54" s="190"/>
-      <c r="O54" s="190"/>
-      <c r="P54" s="188"/>
-      <c r="Q54" s="188"/>
-      <c r="R54" s="190"/>
+      <c r="F54" s="182"/>
+      <c r="G54" s="183"/>
+      <c r="H54" s="182"/>
+      <c r="I54" s="182"/>
+      <c r="J54" s="183"/>
+      <c r="K54" s="182"/>
+      <c r="L54" s="183"/>
+      <c r="M54" s="183"/>
+      <c r="N54" s="183"/>
+      <c r="O54" s="183"/>
+      <c r="P54" s="182"/>
+      <c r="Q54" s="182"/>
+      <c r="R54" s="183"/>
     </row>
     <row r="55" spans="2:18" ht="42">
       <c r="B55" s="103" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C55" s="103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D55" s="103" t="s">
         <v>172</v>
@@ -21203,52 +21214,52 @@
       <c r="E55" s="104">
         <v>2020</v>
       </c>
-      <c r="F55" s="188" t="s">
+      <c r="F55" s="182" t="s">
+        <v>400</v>
+      </c>
+      <c r="G55" s="183">
+        <v>2</v>
+      </c>
+      <c r="H55" s="103" t="s">
+        <v>401</v>
+      </c>
+      <c r="I55" s="182" t="s">
+        <v>265</v>
+      </c>
+      <c r="J55" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="K55" s="182" t="s">
         <v>402</v>
       </c>
-      <c r="G55" s="190">
-        <v>2</v>
-      </c>
-      <c r="H55" s="103" t="s">
-        <v>403</v>
-      </c>
-      <c r="I55" s="188" t="s">
-        <v>267</v>
-      </c>
-      <c r="J55" s="190" t="s">
-        <v>267</v>
-      </c>
-      <c r="K55" s="188" t="s">
-        <v>404</v>
-      </c>
-      <c r="L55" s="190" t="s">
-        <v>295</v>
-      </c>
-      <c r="M55" s="190" t="s">
-        <v>294</v>
+      <c r="L55" s="183" t="s">
+        <v>293</v>
+      </c>
+      <c r="M55" s="183" t="s">
+        <v>292</v>
       </c>
       <c r="N55" s="104" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O55" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P55" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q55" s="188" t="s">
-        <v>295</v>
-      </c>
-      <c r="R55" s="190" t="s">
-        <v>295</v>
+        <v>265</v>
+      </c>
+      <c r="Q55" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="R55" s="183" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="2:18" ht="42">
       <c r="B56" s="103" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C56" s="103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D56" s="103" t="s">
         <v>155</v>
@@ -21256,34 +21267,34 @@
       <c r="E56" s="104">
         <v>2014</v>
       </c>
-      <c r="F56" s="188"/>
-      <c r="G56" s="190"/>
+      <c r="F56" s="182"/>
+      <c r="G56" s="183"/>
       <c r="H56" s="103" t="s">
-        <v>405</v>
-      </c>
-      <c r="I56" s="188"/>
-      <c r="J56" s="190"/>
-      <c r="K56" s="188"/>
-      <c r="L56" s="190"/>
-      <c r="M56" s="190"/>
+        <v>403</v>
+      </c>
+      <c r="I56" s="182"/>
+      <c r="J56" s="183"/>
+      <c r="K56" s="182"/>
+      <c r="L56" s="183"/>
+      <c r="M56" s="183"/>
       <c r="N56" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O56" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P56" s="103" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q56" s="188"/>
-      <c r="R56" s="190"/>
+        <v>404</v>
+      </c>
+      <c r="Q56" s="182"/>
+      <c r="R56" s="183"/>
     </row>
     <row r="57" spans="2:18" ht="28">
       <c r="B57" s="103" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C57" s="103" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D57" s="103" t="s">
         <v>106</v>
@@ -21292,88 +21303,207 @@
         <v>2019</v>
       </c>
       <c r="F57" s="103" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G57" s="104">
         <v>4</v>
       </c>
       <c r="H57" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I57" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J57" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K57" s="103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L57" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M57" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N57" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O57" s="104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P57" s="103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q57" s="103" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R57" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="2:18">
-      <c r="B58" s="199" t="s">
-        <v>409</v>
-      </c>
-      <c r="C58" s="199"/>
-      <c r="D58" s="199"/>
-      <c r="E58" s="199"/>
-      <c r="F58" s="199"/>
-      <c r="G58" s="199"/>
-      <c r="H58" s="199"/>
-      <c r="I58" s="199"/>
-      <c r="J58" s="199"/>
-      <c r="K58" s="199"/>
-      <c r="L58" s="199"/>
-      <c r="M58" s="199"/>
-      <c r="N58" s="199"/>
-      <c r="O58" s="199"/>
-      <c r="P58" s="199"/>
-      <c r="Q58" s="199"/>
-      <c r="R58" s="199"/>
+      <c r="B58" s="184" t="s">
+        <v>407</v>
+      </c>
+      <c r="C58" s="184"/>
+      <c r="D58" s="184"/>
+      <c r="E58" s="184"/>
+      <c r="F58" s="184"/>
+      <c r="G58" s="184"/>
+      <c r="H58" s="184"/>
+      <c r="I58" s="184"/>
+      <c r="J58" s="184"/>
+      <c r="K58" s="184"/>
+      <c r="L58" s="184"/>
+      <c r="M58" s="184"/>
+      <c r="N58" s="184"/>
+      <c r="O58" s="184"/>
+      <c r="P58" s="184"/>
+      <c r="Q58" s="184"/>
+      <c r="R58" s="184"/>
     </row>
     <row r="61" spans="2:18" ht="28" customHeight="1"/>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="B58:R58"/>
-    <mergeCell ref="P51:P54"/>
-    <mergeCell ref="Q51:Q54"/>
-    <mergeCell ref="R51:R54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="K51:K54"/>
-    <mergeCell ref="L51:L54"/>
-    <mergeCell ref="M51:M54"/>
-    <mergeCell ref="N51:N54"/>
-    <mergeCell ref="O51:O54"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B4:B35"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="Q4:Q37"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R32"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="R39:R41"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="M39:M41"/>
     <mergeCell ref="R46:R49"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="D48:D49"/>
@@ -21398,144 +21528,25 @@
     <mergeCell ref="I46:I49"/>
     <mergeCell ref="J46:J49"/>
     <mergeCell ref="Q46:Q49"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="O39:O41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="R39:R41"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R32"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B4:B35"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="Q4:Q37"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="B58:R58"/>
+    <mergeCell ref="P51:P54"/>
+    <mergeCell ref="Q51:Q54"/>
+    <mergeCell ref="R51:R54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="K51:K54"/>
+    <mergeCell ref="L51:L54"/>
+    <mergeCell ref="M51:M54"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="O51:O54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21557,96 +21568,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="E1" s="203" t="s">
+      <c r="E1" s="200" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200" t="s">
+        <v>409</v>
+      </c>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200" t="s">
         <v>410</v>
       </c>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203" t="s">
-        <v>411</v>
-      </c>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203" t="s">
-        <v>412</v>
-      </c>
-      <c r="P1" s="203"/>
+      <c r="P1" s="200"/>
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="A2" s="56" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C2" s="105" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="105" t="s">
+        <v>412</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" s="105" t="s">
         <v>414</v>
-      </c>
-      <c r="E2" s="105" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2" s="105" t="s">
-        <v>416</v>
       </c>
       <c r="G2" s="105" t="s">
         <v>116</v>
       </c>
       <c r="H2" s="105" t="s">
+        <v>415</v>
+      </c>
+      <c r="I2" s="105" t="s">
+        <v>416</v>
+      </c>
+      <c r="J2" s="105" t="s">
         <v>417</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="K2" s="105" t="s">
         <v>418</v>
       </c>
-      <c r="J2" s="105" t="s">
+      <c r="L2" s="105" t="s">
         <v>419</v>
       </c>
-      <c r="K2" s="105" t="s">
+      <c r="M2" s="105" t="s">
         <v>420</v>
-      </c>
-      <c r="L2" s="105" t="s">
-        <v>421</v>
-      </c>
-      <c r="M2" s="105" t="s">
-        <v>422</v>
       </c>
       <c r="N2" s="105" t="s">
         <v>116</v>
       </c>
       <c r="O2" s="105" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P2" s="105" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="221">
       <c r="A3" s="106" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D3" s="108"/>
       <c r="E3" s="108" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F3" s="108" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G3" s="108"/>
       <c r="H3" s="108"/>
       <c r="I3" s="108" t="s">
+        <v>426</v>
+      </c>
+      <c r="J3" s="108" t="s">
+        <v>427</v>
+      </c>
+      <c r="K3" s="108" t="s">
         <v>428</v>
-      </c>
-      <c r="J3" s="108" t="s">
-        <v>429</v>
-      </c>
-      <c r="K3" s="108" t="s">
-        <v>430</v>
       </c>
       <c r="L3" s="108"/>
       <c r="M3" s="108">
@@ -21662,24 +21673,24 @@
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="C4" s="107" t="s">
+        <v>429</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" s="108" t="s">
         <v>431</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="F4" s="108" t="s">
         <v>432</v>
-      </c>
-      <c r="E4" s="108" t="s">
-        <v>433</v>
-      </c>
-      <c r="F4" s="108" t="s">
-        <v>434</v>
       </c>
       <c r="G4" s="108"/>
       <c r="H4" s="108" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I4" s="108"/>
       <c r="J4" s="108" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K4" s="108"/>
       <c r="L4" s="108"/>
@@ -21687,7 +21698,7 @@
       <c r="N4" s="108"/>
       <c r="O4" s="108"/>
       <c r="P4" s="108" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="68">
@@ -21695,16 +21706,16 @@
         <v>101</v>
       </c>
       <c r="D5" s="108" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>424</v>
+      </c>
+      <c r="F5" s="108" t="s">
+        <v>437</v>
+      </c>
+      <c r="G5" s="108" t="s">
         <v>438</v>
-      </c>
-      <c r="E5" s="108" t="s">
-        <v>426</v>
-      </c>
-      <c r="F5" s="108" t="s">
-        <v>439</v>
-      </c>
-      <c r="G5" s="108" t="s">
-        <v>440</v>
       </c>
       <c r="H5" s="108"/>
       <c r="I5" s="108"/>
@@ -21723,10 +21734,10 @@
         <v>102</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E6" s="108" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F6" s="108"/>
       <c r="G6" s="108"/>
@@ -21741,37 +21752,37 @@
       <c r="N6" s="108"/>
       <c r="O6" s="108"/>
       <c r="P6" s="108" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="102">
       <c r="C7" s="107" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D7" s="108"/>
       <c r="E7" s="108" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G7" s="108"/>
       <c r="H7" s="108"/>
       <c r="I7" s="108" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J7" s="108"/>
       <c r="K7" s="108" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L7" s="108"/>
       <c r="M7" s="108"/>
       <c r="N7" s="108"/>
       <c r="O7" s="108" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="P7" s="108" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="119">
@@ -21779,29 +21790,29 @@
         <v>109</v>
       </c>
       <c r="D8" s="108" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G8" s="108"/>
       <c r="H8" s="108"/>
       <c r="I8" s="108"/>
       <c r="J8" s="108"/>
       <c r="K8" s="108" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L8" s="108"/>
       <c r="M8" s="108" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N8" s="108"/>
       <c r="O8" s="108"/>
       <c r="P8" s="108" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="34">
@@ -21813,7 +21824,7 @@
       <c r="F9" s="108"/>
       <c r="G9" s="108"/>
       <c r="H9" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I9" s="108"/>
       <c r="J9" s="108"/>
@@ -21833,7 +21844,7 @@
       <c r="F10" s="108"/>
       <c r="G10" s="108"/>
       <c r="H10" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I10" s="108"/>
       <c r="J10" s="108"/>
@@ -21850,30 +21861,30 @@
       </c>
       <c r="D11" s="108"/>
       <c r="E11" s="108" t="s">
+        <v>452</v>
+      </c>
+      <c r="F11" s="108" t="s">
+        <v>453</v>
+      </c>
+      <c r="G11" s="108" t="s">
         <v>454</v>
-      </c>
-      <c r="F11" s="108" t="s">
-        <v>455</v>
-      </c>
-      <c r="G11" s="108" t="s">
-        <v>456</v>
       </c>
       <c r="H11" s="108"/>
       <c r="I11" s="108"/>
       <c r="J11" s="108"/>
       <c r="K11" s="108" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L11" s="108"/>
       <c r="M11" s="108"/>
       <c r="N11" s="108" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O11" s="108" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P11" s="108" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="51">
@@ -21881,11 +21892,11 @@
         <v>119</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E12" s="108"/>
       <c r="F12" s="108" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G12" s="108"/>
       <c r="H12" s="108"/>
@@ -21897,7 +21908,7 @@
       <c r="N12" s="108"/>
       <c r="O12" s="108"/>
       <c r="P12" s="108" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="119">
@@ -21907,25 +21918,25 @@
       <c r="D13" s="108"/>
       <c r="E13" s="108"/>
       <c r="F13" s="108" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G13" s="108"/>
       <c r="H13" s="108"/>
       <c r="I13" s="108"/>
       <c r="J13" s="108"/>
       <c r="K13" s="108" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L13" s="108"/>
       <c r="M13" s="108"/>
       <c r="N13" s="108" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O13" s="108">
         <v>5</v>
       </c>
       <c r="P13" s="108" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="34">
@@ -21955,21 +21966,21 @@
       <c r="F15" s="108"/>
       <c r="G15" s="108"/>
       <c r="H15" s="108" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I15" s="108"/>
       <c r="J15" s="108"/>
       <c r="K15" s="108" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L15" s="108"/>
       <c r="M15" s="108"/>
       <c r="N15" s="108"/>
       <c r="O15" s="108" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P15" s="108" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="153">
@@ -21977,23 +21988,23 @@
         <v>128</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E16" s="108" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F16" s="108" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G16" s="108"/>
       <c r="H16" s="108" t="s">
+        <v>469</v>
+      </c>
+      <c r="I16" s="108" t="s">
+        <v>470</v>
+      </c>
+      <c r="J16" s="108" t="s">
         <v>471</v>
-      </c>
-      <c r="I16" s="108" t="s">
-        <v>472</v>
-      </c>
-      <c r="J16" s="108" t="s">
-        <v>473</v>
       </c>
       <c r="K16" s="108"/>
       <c r="L16" s="108"/>
@@ -22001,7 +22012,7 @@
       <c r="N16" s="108"/>
       <c r="O16" s="108"/>
       <c r="P16" s="108" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="51">
@@ -22009,37 +22020,37 @@
         <v>131</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E17" s="108" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F17" s="108" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G17" s="108"/>
       <c r="H17" s="108" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I17" s="108"/>
       <c r="J17" s="108"/>
       <c r="K17" s="108" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L17" s="108"/>
       <c r="M17" s="108"/>
       <c r="N17" s="108"/>
       <c r="O17" s="108"/>
       <c r="P17" s="108" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="3:16" ht="51">
       <c r="C18" s="107" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D18" s="108" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
@@ -22047,17 +22058,17 @@
       <c r="H18" s="108"/>
       <c r="I18" s="108"/>
       <c r="J18" s="108" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K18" s="108"/>
       <c r="L18" s="108"/>
       <c r="M18" s="108"/>
       <c r="N18" s="108" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O18" s="108"/>
       <c r="P18" s="108" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="3:16" ht="102">
@@ -22065,16 +22076,16 @@
         <v>135</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E19" s="108" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F19" s="108" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G19" s="108" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H19" s="108"/>
       <c r="I19" s="108"/>
@@ -22085,12 +22096,12 @@
       <c r="N19" s="108"/>
       <c r="O19" s="108"/>
       <c r="P19" s="108" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="3:16" ht="34">
       <c r="C20" s="107" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D20" s="108"/>
       <c r="E20" s="108"/>
@@ -22113,7 +22124,7 @@
       <c r="D21" s="108"/>
       <c r="E21" s="108"/>
       <c r="F21" s="108" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G21" s="108"/>
       <c r="H21" s="108"/>
@@ -22122,12 +22133,12 @@
       <c r="K21" s="108"/>
       <c r="L21" s="108"/>
       <c r="M21" s="108" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N21" s="108"/>
       <c r="O21" s="108"/>
       <c r="P21" s="108" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="3:16" ht="34">
@@ -22136,10 +22147,10 @@
       </c>
       <c r="D22" s="108"/>
       <c r="E22" s="108" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F22" s="108" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G22" s="108"/>
       <c r="H22" s="108"/>
@@ -22153,7 +22164,7 @@
       <c r="N22" s="108"/>
       <c r="O22" s="108"/>
       <c r="P22" s="108" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="3:16" ht="51">
@@ -22161,11 +22172,11 @@
         <v>142</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E23" s="108"/>
       <c r="F23" s="108" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G23" s="108"/>
       <c r="H23" s="108"/>
@@ -22177,7 +22188,7 @@
       <c r="N23" s="108"/>
       <c r="O23" s="108"/>
       <c r="P23" s="108" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="3:16" ht="221">
@@ -22185,31 +22196,31 @@
         <v>144</v>
       </c>
       <c r="D24" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E24" s="108" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F24" s="108"/>
       <c r="G24" s="108"/>
       <c r="H24" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I24" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J24" s="108" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K24" s="108" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L24" s="108"/>
       <c r="M24" s="108"/>
       <c r="N24" s="108"/>
       <c r="O24" s="108"/>
       <c r="P24" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="3:16" ht="34">
@@ -22217,10 +22228,10 @@
         <v>146</v>
       </c>
       <c r="D25" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E25" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F25" s="108"/>
       <c r="G25" s="108"/>
@@ -22239,10 +22250,10 @@
         <v>149</v>
       </c>
       <c r="D26" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E26" s="108" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F26" s="108"/>
       <c r="G26" s="108"/>
@@ -22254,7 +22265,7 @@
       <c r="M26" s="108"/>
       <c r="N26" s="108"/>
       <c r="O26" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P26" s="108"/>
     </row>
@@ -22270,13 +22281,13 @@
       <c r="I27" s="108"/>
       <c r="J27" s="108"/>
       <c r="K27" s="108" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L27" s="108"/>
       <c r="M27" s="108"/>
       <c r="N27" s="108"/>
       <c r="O27" s="108" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="P27" s="108"/>
     </row>
@@ -22285,14 +22296,14 @@
         <v>153</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E28" s="108"/>
       <c r="F28" s="108" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G28" s="108" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H28" s="108"/>
       <c r="I28" s="108"/>
@@ -22303,7 +22314,7 @@
       <c r="N28" s="108"/>
       <c r="O28" s="108"/>
       <c r="P28" s="108" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="3:16" ht="34">
@@ -22311,7 +22322,7 @@
         <v>154</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E29" s="108"/>
       <c r="F29" s="108"/>
@@ -22339,7 +22350,7 @@
       <c r="J30" s="108"/>
       <c r="K30" s="108"/>
       <c r="L30" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M30" s="108"/>
       <c r="N30" s="108"/>
@@ -22376,7 +22387,7 @@
       <c r="I32" s="108"/>
       <c r="J32" s="108"/>
       <c r="K32" s="108" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L32" s="108"/>
       <c r="M32" s="108"/>
@@ -22390,13 +22401,13 @@
       </c>
       <c r="D33" s="108"/>
       <c r="E33" s="108" t="s">
+        <v>495</v>
+      </c>
+      <c r="F33" s="108" t="s">
+        <v>496</v>
+      </c>
+      <c r="G33" s="108" t="s">
         <v>497</v>
-      </c>
-      <c r="F33" s="108" t="s">
-        <v>498</v>
-      </c>
-      <c r="G33" s="108" t="s">
-        <v>499</v>
       </c>
       <c r="H33" s="108"/>
       <c r="I33" s="108"/>
@@ -22407,7 +22418,7 @@
       <c r="N33" s="108"/>
       <c r="O33" s="108"/>
       <c r="P33" s="108" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="3:45" ht="68">
@@ -22415,13 +22426,13 @@
         <v>161</v>
       </c>
       <c r="D34" s="108" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E34" s="108" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F34" s="108" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G34" s="108"/>
       <c r="H34" s="108"/>
@@ -22441,20 +22452,20 @@
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
       <c r="I35" s="108"/>
       <c r="J35" s="108"/>
       <c r="K35" s="108" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L35" s="108"/>
       <c r="M35" s="108"/>
       <c r="N35" s="108"/>
       <c r="O35" s="108" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="P35" s="108"/>
     </row>
@@ -22463,10 +22474,10 @@
         <v>164</v>
       </c>
       <c r="D36" s="108" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E36" s="108" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F36" s="108"/>
       <c r="G36" s="108"/>
@@ -22493,7 +22504,7 @@
       <c r="J37" s="108"/>
       <c r="K37" s="108"/>
       <c r="L37" s="108" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M37" s="108"/>
       <c r="N37" s="108"/>
@@ -22505,13 +22516,13 @@
         <v>169</v>
       </c>
       <c r="D38" s="108" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E38" s="108"/>
       <c r="F38" s="108"/>
       <c r="G38" s="108"/>
       <c r="H38" s="108" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I38" s="108"/>
       <c r="J38" s="108"/>
@@ -22520,10 +22531,10 @@
       <c r="M38" s="108"/>
       <c r="N38" s="108"/>
       <c r="O38" s="108" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P38" s="108" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="3:45" ht="17">
@@ -22539,7 +22550,7 @@
       <c r="J39" s="108"/>
       <c r="K39" s="108"/>
       <c r="L39" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M39" s="108"/>
       <c r="N39" s="108"/>
@@ -22551,10 +22562,10 @@
         <v>82</v>
       </c>
       <c r="E46" s="107" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F46" s="107" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G46" s="108" t="s">
         <v>101</v>
@@ -22563,7 +22574,7 @@
         <v>102</v>
       </c>
       <c r="I46" s="107" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J46" s="108" t="s">
         <v>109</v>
@@ -22596,13 +22607,13 @@
         <v>131</v>
       </c>
       <c r="T46" s="107" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="U46" s="107" t="s">
         <v>135</v>
       </c>
       <c r="V46" s="107" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="W46" s="108" t="s">
         <v>136</v>
@@ -22661,86 +22672,86 @@
       <c r="AO46" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="AP46" s="200"/>
-      <c r="AQ46" s="201"/>
-      <c r="AR46" s="201"/>
-      <c r="AS46" s="202"/>
+      <c r="AP46" s="201"/>
+      <c r="AQ46" s="202"/>
+      <c r="AR46" s="202"/>
+      <c r="AS46" s="203"/>
     </row>
     <row r="47" spans="3:45" ht="153">
       <c r="D47" s="105" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E47" s="108"/>
       <c r="F47" s="108" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G47" s="108" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H47" s="108" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I47" s="108"/>
       <c r="J47" s="108" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K47" s="108"/>
       <c r="L47" s="108"/>
       <c r="M47" s="108"/>
       <c r="N47" s="108" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O47" s="108"/>
       <c r="P47" s="108"/>
       <c r="Q47" s="108"/>
       <c r="R47" s="108" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="S47" s="108" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="T47" s="108" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U47" s="108" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="V47" s="108"/>
       <c r="W47" s="108"/>
       <c r="X47" s="108"/>
       <c r="Y47" s="108" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Z47" s="108" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AA47" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AB47" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AC47" s="108"/>
       <c r="AD47" s="108" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AE47" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AF47" s="108"/>
       <c r="AG47" s="108"/>
       <c r="AH47" s="108"/>
       <c r="AI47" s="108"/>
       <c r="AJ47" s="108" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AK47" s="108"/>
       <c r="AL47" s="108" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AM47" s="108"/>
       <c r="AN47" s="108" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AO47" s="108"/>
       <c r="AP47" s="109"/>
@@ -22749,63 +22760,63 @@
       <c r="AS47" s="111"/>
     </row>
     <row r="48" spans="3:45" ht="187">
-      <c r="C48" s="203" t="s">
-        <v>410</v>
+      <c r="C48" s="200" t="s">
+        <v>408</v>
       </c>
       <c r="D48" s="112" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E48" s="113" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F48" s="108" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G48" s="114" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H48" s="115" t="s">
+        <v>439</v>
+      </c>
+      <c r="I48" s="115" t="s">
         <v>441</v>
       </c>
-      <c r="I48" s="115" t="s">
-        <v>443</v>
-      </c>
       <c r="J48" s="114" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K48" s="108"/>
       <c r="L48" s="108"/>
       <c r="M48" s="115" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N48" s="108"/>
       <c r="O48" s="108"/>
       <c r="P48" s="108"/>
       <c r="Q48" s="108"/>
       <c r="R48" s="114" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="S48" s="114" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="T48" s="108"/>
       <c r="U48" s="114" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="V48" s="108"/>
       <c r="W48" s="108"/>
       <c r="X48" s="114" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Y48" s="108"/>
       <c r="Z48" s="113" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA48" s="108" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB48" s="113" t="s">
         <v>514</v>
-      </c>
-      <c r="AA48" s="108" t="s">
-        <v>515</v>
-      </c>
-      <c r="AB48" s="113" t="s">
-        <v>516</v>
       </c>
       <c r="AC48" s="108"/>
       <c r="AD48" s="108"/>
@@ -22814,99 +22825,99 @@
       <c r="AG48" s="108"/>
       <c r="AH48" s="108"/>
       <c r="AI48" s="108" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AJ48" s="114" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AK48" s="108"/>
       <c r="AL48" s="115" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM48" s="108"/>
       <c r="AN48" s="108"/>
       <c r="AO48" s="108"/>
       <c r="AP48" s="116" t="s">
+        <v>515</v>
+      </c>
+      <c r="AQ48" s="117" t="s">
+        <v>516</v>
+      </c>
+      <c r="AR48" s="118" t="s">
         <v>517</v>
       </c>
-      <c r="AQ48" s="117" t="s">
-        <v>518</v>
-      </c>
-      <c r="AR48" s="118" t="s">
-        <v>519</v>
-      </c>
       <c r="AS48" s="111"/>
     </row>
     <row r="49" spans="3:45" ht="153">
-      <c r="C49" s="203"/>
+      <c r="C49" s="200"/>
       <c r="D49" s="204" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E49" s="119"/>
       <c r="F49" s="120" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G49" s="121" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H49" s="119"/>
       <c r="I49" s="120" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J49" s="120" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K49" s="119"/>
       <c r="L49" s="119"/>
       <c r="M49" s="122" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N49" s="121" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O49" s="121" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P49" s="119"/>
       <c r="Q49" s="119"/>
       <c r="R49" s="123" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="S49" s="120" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="T49" s="119"/>
       <c r="U49" s="121" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="V49" s="119"/>
       <c r="W49" s="122" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="X49" s="121" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Y49" s="121" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Z49" s="120" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AA49" s="119"/>
       <c r="AB49" s="119"/>
       <c r="AC49" s="119"/>
       <c r="AD49" s="121" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AE49" s="119"/>
       <c r="AF49" s="119"/>
       <c r="AG49" s="119"/>
       <c r="AH49" s="119"/>
       <c r="AI49" s="121" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AJ49" s="121" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AK49" s="124"/>
       <c r="AL49" s="119"/>
@@ -22914,25 +22925,25 @@
       <c r="AN49" s="119"/>
       <c r="AO49" s="119"/>
       <c r="AP49" s="125" t="s">
+        <v>525</v>
+      </c>
+      <c r="AQ49" s="117" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR49" s="126" t="s">
         <v>527</v>
       </c>
-      <c r="AQ49" s="117" t="s">
+      <c r="AS49" s="127" t="s">
         <v>528</v>
       </c>
-      <c r="AR49" s="126" t="s">
-        <v>529</v>
-      </c>
-      <c r="AS49" s="127" t="s">
-        <v>530</v>
-      </c>
     </row>
     <row r="50" spans="3:45" ht="102">
-      <c r="C50" s="203"/>
+      <c r="C50" s="200"/>
       <c r="D50" s="205"/>
       <c r="E50" s="108"/>
       <c r="F50" s="108"/>
       <c r="G50" s="128" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H50" s="108"/>
       <c r="I50" s="108"/>
@@ -22940,11 +22951,11 @@
       <c r="K50" s="108"/>
       <c r="L50" s="108"/>
       <c r="M50" s="129" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N50" s="108"/>
       <c r="O50" s="129" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="P50" s="108"/>
       <c r="Q50" s="108"/>
@@ -22952,32 +22963,32 @@
       <c r="S50" s="108"/>
       <c r="T50" s="108"/>
       <c r="U50" s="128" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="V50" s="108"/>
       <c r="W50" s="108"/>
       <c r="X50" s="108"/>
       <c r="Y50" s="130" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Z50" s="131" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AA50" s="108"/>
       <c r="AB50" s="108"/>
       <c r="AC50" s="108"/>
       <c r="AD50" s="129" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AE50" s="108"/>
       <c r="AF50" s="108"/>
       <c r="AG50" s="108"/>
       <c r="AH50" s="108"/>
       <c r="AI50" s="128" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AJ50" s="129" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AK50" s="108"/>
       <c r="AL50" s="108"/>
@@ -22990,14 +23001,14 @@
       <c r="AS50" s="111"/>
     </row>
     <row r="51" spans="3:45" ht="102">
-      <c r="C51" s="203"/>
+      <c r="C51" s="200"/>
       <c r="D51" s="204" t="s">
         <v>116</v>
       </c>
       <c r="E51" s="119"/>
       <c r="F51" s="119"/>
       <c r="G51" s="119" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H51" s="119"/>
       <c r="I51" s="119"/>
@@ -23005,7 +23016,7 @@
       <c r="K51" s="119"/>
       <c r="L51" s="119"/>
       <c r="M51" s="133" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N51" s="119"/>
       <c r="O51" s="119"/>
@@ -23015,51 +23026,51 @@
       <c r="S51" s="119"/>
       <c r="T51" s="119"/>
       <c r="U51" s="133" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="V51" s="119"/>
       <c r="W51" s="119"/>
       <c r="X51" s="119"/>
       <c r="Y51" s="122" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Z51" s="119"/>
       <c r="AA51" s="119"/>
       <c r="AB51" s="119"/>
       <c r="AC51" s="119"/>
       <c r="AD51" s="122" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AE51" s="119"/>
       <c r="AF51" s="119"/>
       <c r="AG51" s="119"/>
       <c r="AH51" s="119"/>
       <c r="AI51" s="133" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AJ51" s="119"/>
       <c r="AK51" s="123" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AL51" s="119"/>
       <c r="AM51" s="119"/>
       <c r="AN51" s="119"/>
       <c r="AO51" s="119"/>
       <c r="AP51" s="134" t="s">
+        <v>536</v>
+      </c>
+      <c r="AQ51" s="135" t="s">
+        <v>537</v>
+      </c>
+      <c r="AR51" s="126" t="s">
         <v>538</v>
       </c>
-      <c r="AQ51" s="135" t="s">
+      <c r="AS51" s="136" t="s">
         <v>539</v>
       </c>
-      <c r="AR51" s="126" t="s">
-        <v>540</v>
-      </c>
-      <c r="AS51" s="136" t="s">
-        <v>541</v>
-      </c>
     </row>
     <row r="52" spans="3:45" ht="68">
-      <c r="C52" s="203"/>
+      <c r="C52" s="200"/>
       <c r="D52" s="205"/>
       <c r="E52" s="137"/>
       <c r="F52" s="137"/>
@@ -23070,7 +23081,7 @@
       <c r="K52" s="137"/>
       <c r="L52" s="137"/>
       <c r="M52" s="138" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N52" s="137"/>
       <c r="O52" s="137"/>
@@ -23094,7 +23105,7 @@
       <c r="AG52" s="137"/>
       <c r="AH52" s="137"/>
       <c r="AI52" s="138" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AJ52" s="137"/>
       <c r="AK52" s="137"/>
@@ -23108,15 +23119,15 @@
       <c r="AS52" s="111"/>
     </row>
     <row r="53" spans="3:45" ht="68">
-      <c r="C53" s="203" t="s">
-        <v>411</v>
+      <c r="C53" s="200" t="s">
+        <v>409</v>
       </c>
       <c r="D53" s="105" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E53" s="108"/>
       <c r="F53" s="108" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G53" s="108"/>
       <c r="H53" s="108">
@@ -23125,23 +23136,23 @@
       <c r="I53" s="108"/>
       <c r="J53" s="108"/>
       <c r="K53" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L53" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M53" s="108"/>
       <c r="N53" s="108"/>
       <c r="O53" s="108"/>
       <c r="P53" s="108"/>
       <c r="Q53" s="108" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="R53" s="108" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="S53" s="108" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="T53" s="108"/>
       <c r="U53" s="108"/>
@@ -23150,7 +23161,7 @@
       <c r="X53" s="108"/>
       <c r="Y53" s="108"/>
       <c r="Z53" s="108" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AA53" s="108"/>
       <c r="AB53" s="108"/>
@@ -23166,7 +23177,7 @@
       <c r="AL53" s="108"/>
       <c r="AM53" s="108"/>
       <c r="AN53" s="108" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AO53" s="108"/>
       <c r="AP53" s="139">
@@ -23177,18 +23188,18 @@
       <c r="AS53" s="111"/>
     </row>
     <row r="54" spans="3:45" ht="136">
-      <c r="C54" s="203"/>
+      <c r="C54" s="200"/>
       <c r="D54" s="105" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E54" s="108" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F54" s="108"/>
       <c r="G54" s="108"/>
       <c r="H54" s="108"/>
       <c r="I54" s="108" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J54" s="108"/>
       <c r="K54" s="108"/>
@@ -23199,7 +23210,7 @@
       <c r="P54" s="108"/>
       <c r="Q54" s="108"/>
       <c r="R54" s="108" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="S54" s="108"/>
       <c r="T54" s="108"/>
@@ -23209,7 +23220,7 @@
       <c r="X54" s="108"/>
       <c r="Y54" s="108"/>
       <c r="Z54" s="108" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AA54" s="108"/>
       <c r="AB54" s="108"/>
@@ -23234,15 +23245,15 @@
       <c r="AS54" s="111"/>
     </row>
     <row r="55" spans="3:45" ht="221">
-      <c r="C55" s="203"/>
+      <c r="C55" s="200"/>
       <c r="D55" s="105" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E55" s="108" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F55" s="108" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G55" s="108"/>
       <c r="H55" s="108"/>
@@ -23253,16 +23264,16 @@
       <c r="M55" s="108"/>
       <c r="N55" s="108"/>
       <c r="O55" s="108" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P55" s="108"/>
       <c r="Q55" s="108"/>
       <c r="R55" s="108" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="S55" s="108"/>
       <c r="T55" s="108" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="U55" s="108"/>
       <c r="V55" s="108"/>
@@ -23272,7 +23283,7 @@
       </c>
       <c r="Y55" s="108"/>
       <c r="Z55" s="108" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AA55" s="108"/>
       <c r="AB55" s="108"/>
@@ -23297,12 +23308,12 @@
       <c r="AS55" s="111"/>
     </row>
     <row r="56" spans="3:45" ht="119">
-      <c r="C56" s="203"/>
+      <c r="C56" s="200"/>
       <c r="D56" s="105" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E56" s="108" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F56" s="108"/>
       <c r="G56" s="108">
@@ -23310,27 +23321,27 @@
       </c>
       <c r="H56" s="108"/>
       <c r="I56" s="108" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J56" s="108" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K56" s="108"/>
       <c r="L56" s="108"/>
       <c r="M56" s="108" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N56" s="108"/>
       <c r="O56" s="108" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P56" s="108"/>
       <c r="Q56" s="108" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="R56" s="108"/>
       <c r="S56" s="108" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="T56" s="108"/>
       <c r="U56" s="108"/>
@@ -23339,24 +23350,24 @@
       <c r="X56" s="108"/>
       <c r="Y56" s="108"/>
       <c r="Z56" s="108" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AA56" s="108"/>
       <c r="AB56" s="108"/>
       <c r="AC56" s="108" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AD56" s="108"/>
       <c r="AE56" s="108"/>
       <c r="AF56" s="108"/>
       <c r="AG56" s="108"/>
       <c r="AH56" s="108" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AI56" s="108"/>
       <c r="AJ56" s="108"/>
       <c r="AK56" s="108" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AL56" s="108"/>
       <c r="AM56" s="108"/>
@@ -23370,9 +23381,9 @@
       <c r="AS56" s="111"/>
     </row>
     <row r="57" spans="3:45" ht="17">
-      <c r="C57" s="203"/>
+      <c r="C57" s="200"/>
       <c r="D57" s="105" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E57" s="108"/>
       <c r="F57" s="108"/>
@@ -23402,7 +23413,7 @@
       <c r="AD57" s="108"/>
       <c r="AE57" s="108"/>
       <c r="AF57" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AG57" s="108"/>
       <c r="AH57" s="108"/>
@@ -23411,11 +23422,11 @@
       <c r="AK57" s="108"/>
       <c r="AL57" s="108"/>
       <c r="AM57" s="108" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AN57" s="108"/>
       <c r="AO57" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AP57" s="139">
         <v>3</v>
@@ -23425,9 +23436,9 @@
       <c r="AS57" s="111"/>
     </row>
     <row r="58" spans="3:45" ht="51">
-      <c r="C58" s="203"/>
+      <c r="C58" s="200"/>
       <c r="D58" s="105" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E58" s="108">
         <v>5</v>
@@ -23437,7 +23448,7 @@
       <c r="H58" s="108"/>
       <c r="I58" s="108"/>
       <c r="J58" s="108" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K58" s="108"/>
       <c r="L58" s="108"/>
@@ -23449,12 +23460,12 @@
       <c r="R58" s="108"/>
       <c r="S58" s="108"/>
       <c r="T58" s="108" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="U58" s="108"/>
       <c r="V58" s="108"/>
       <c r="W58" s="108" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="X58" s="108"/>
       <c r="Y58" s="108"/>
@@ -23482,7 +23493,7 @@
       <c r="AS58" s="111"/>
     </row>
     <row r="59" spans="3:45" ht="102">
-      <c r="C59" s="203"/>
+      <c r="C59" s="200"/>
       <c r="D59" s="105" t="s">
         <v>116</v>
       </c>
@@ -23495,18 +23506,18 @@
       <c r="K59" s="108"/>
       <c r="L59" s="108"/>
       <c r="M59" s="108" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N59" s="108"/>
       <c r="O59" s="140" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P59" s="108"/>
       <c r="Q59" s="108"/>
       <c r="R59" s="108"/>
       <c r="S59" s="108"/>
       <c r="T59" s="140" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="U59" s="108"/>
       <c r="V59" s="108"/>
@@ -23537,11 +23548,11 @@
       <c r="AS59" s="111"/>
     </row>
     <row r="60" spans="3:45" ht="34">
-      <c r="C60" s="203" t="s">
-        <v>412</v>
+      <c r="C60" s="200" t="s">
+        <v>410</v>
       </c>
       <c r="D60" s="105" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E60" s="108">
         <v>7</v>
@@ -23550,13 +23561,13 @@
       <c r="G60" s="108"/>
       <c r="H60" s="108"/>
       <c r="I60" s="108" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J60" s="108"/>
       <c r="K60" s="108"/>
       <c r="L60" s="108"/>
       <c r="M60" s="108" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N60" s="108"/>
       <c r="O60" s="108">
@@ -23564,7 +23575,7 @@
       </c>
       <c r="P60" s="108"/>
       <c r="Q60" s="108" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="R60" s="108"/>
       <c r="S60" s="108"/>
@@ -23577,10 +23588,10 @@
       <c r="Z60" s="108"/>
       <c r="AA60" s="108"/>
       <c r="AB60" s="108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AC60" s="108" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AD60" s="108"/>
       <c r="AE60" s="108"/>
@@ -23590,12 +23601,12 @@
       <c r="AI60" s="108"/>
       <c r="AJ60" s="108"/>
       <c r="AK60" s="108" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AL60" s="108"/>
       <c r="AM60" s="108"/>
       <c r="AN60" s="108" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AO60" s="108"/>
       <c r="AP60" s="139">
@@ -23606,85 +23617,85 @@
       <c r="AS60" s="111"/>
     </row>
     <row r="61" spans="3:45" ht="34">
-      <c r="C61" s="203"/>
+      <c r="C61" s="200"/>
       <c r="D61" s="105" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E61" s="108">
         <v>8</v>
       </c>
       <c r="F61" s="108" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G61" s="108"/>
       <c r="H61" s="108" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I61" s="108" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J61" s="108" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K61" s="108"/>
       <c r="L61" s="108"/>
       <c r="M61" s="108" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N61" s="108" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O61" s="108" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P61" s="108"/>
       <c r="Q61" s="108" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="R61" s="108" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="S61" s="108" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="T61" s="108" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U61" s="108" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V61" s="108"/>
       <c r="W61" s="108" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="X61" s="108" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Y61" s="108" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Z61" s="108" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AA61" s="108"/>
       <c r="AB61" s="108"/>
       <c r="AC61" s="108"/>
       <c r="AD61" s="108" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AE61" s="108"/>
       <c r="AF61" s="108"/>
       <c r="AG61" s="108"/>
       <c r="AH61" s="108"/>
       <c r="AI61" s="108" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AJ61" s="108"/>
       <c r="AK61" s="108"/>
       <c r="AL61" s="108"/>
       <c r="AM61" s="108"/>
       <c r="AN61" s="108" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AO61" s="108"/>
       <c r="AP61" s="139">
@@ -23697,10 +23708,10 @@
     <row r="65" spans="4:27">
       <c r="D65" s="141"/>
       <c r="E65" s="211" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F65" s="210" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G65" s="210"/>
       <c r="H65" s="210"/>
@@ -23715,7 +23726,7 @@
       <c r="Q65" s="210"/>
       <c r="R65" s="210"/>
       <c r="S65" s="206" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="T65" s="213"/>
       <c r="U65" s="213"/>
@@ -23724,7 +23735,7 @@
       <c r="X65" s="213"/>
       <c r="Y65" s="213"/>
       <c r="Z65" s="206" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AA65" s="207"/>
     </row>
@@ -23732,20 +23743,20 @@
       <c r="D66" s="141"/>
       <c r="E66" s="212"/>
       <c r="F66" s="210" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G66" s="210"/>
       <c r="H66" s="210"/>
       <c r="I66" s="210"/>
       <c r="J66" s="210"/>
       <c r="K66" s="210" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L66" s="210"/>
       <c r="M66" s="210"/>
       <c r="N66" s="210"/>
       <c r="O66" s="210" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="P66" s="210"/>
       <c r="Q66" s="210"/>
@@ -23762,74 +23773,74 @@
     </row>
     <row r="67" spans="4:27" ht="34">
       <c r="D67" s="141" t="s">
+        <v>551</v>
+      </c>
+      <c r="E67" s="172"/>
+      <c r="F67" s="141" t="s">
+        <v>552</v>
+      </c>
+      <c r="G67" s="141" t="s">
         <v>553</v>
       </c>
-      <c r="E67" s="173"/>
-      <c r="F67" s="141" t="s">
+      <c r="H67" s="142" t="s">
         <v>554</v>
       </c>
-      <c r="G67" s="141" t="s">
+      <c r="I67" s="141" t="s">
         <v>555</v>
-      </c>
-      <c r="H67" s="142" t="s">
-        <v>556</v>
-      </c>
-      <c r="I67" s="141" t="s">
-        <v>557</v>
       </c>
       <c r="J67" s="141" t="s">
         <v>220</v>
       </c>
       <c r="K67" s="141" t="s">
+        <v>555</v>
+      </c>
+      <c r="L67" s="141" t="s">
+        <v>556</v>
+      </c>
+      <c r="M67" s="141" t="s">
         <v>557</v>
       </c>
-      <c r="L67" s="141" t="s">
+      <c r="N67" s="141" t="s">
         <v>558</v>
       </c>
-      <c r="M67" s="141" t="s">
+      <c r="O67" s="141" t="s">
         <v>559</v>
       </c>
-      <c r="N67" s="141" t="s">
+      <c r="P67" s="142" t="s">
         <v>560</v>
       </c>
-      <c r="O67" s="141" t="s">
+      <c r="Q67" s="142" t="s">
         <v>561</v>
       </c>
-      <c r="P67" s="142" t="s">
+      <c r="R67" s="141" t="s">
         <v>562</v>
       </c>
-      <c r="Q67" s="142" t="s">
+      <c r="S67" s="143" t="s">
         <v>563</v>
       </c>
-      <c r="R67" s="141" t="s">
+      <c r="T67" s="143" t="s">
+        <v>416</v>
+      </c>
+      <c r="U67" s="143" t="s">
+        <v>417</v>
+      </c>
+      <c r="V67" s="143" t="s">
+        <v>420</v>
+      </c>
+      <c r="W67" s="143" t="s">
+        <v>418</v>
+      </c>
+      <c r="X67" s="143" t="s">
         <v>564</v>
-      </c>
-      <c r="S67" s="143" t="s">
-        <v>565</v>
-      </c>
-      <c r="T67" s="143" t="s">
-        <v>418</v>
-      </c>
-      <c r="U67" s="143" t="s">
-        <v>419</v>
-      </c>
-      <c r="V67" s="143" t="s">
-        <v>422</v>
-      </c>
-      <c r="W67" s="143" t="s">
-        <v>420</v>
-      </c>
-      <c r="X67" s="143" t="s">
-        <v>566</v>
       </c>
       <c r="Y67" s="141" t="s">
         <v>116</v>
       </c>
       <c r="Z67" s="141" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AA67" s="141" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="4:27">
@@ -23908,19 +23919,14 @@
     </row>
     <row r="89" spans="8:14" ht="20">
       <c r="H89" s="144" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N89" s="144" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="C60:C61"/>
     <mergeCell ref="AP46:AS46"/>
     <mergeCell ref="C48:C52"/>
     <mergeCell ref="D49:D50"/>
@@ -23932,6 +23938,11 @@
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="F65:R65"/>
     <mergeCell ref="S65:Y66"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C60:C61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
